--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
   <si>
     <t>Week</t>
   </si>
@@ -347,34 +347,52 @@
     <t>LMC</t>
   </si>
   <si>
-    <t>*Internship Onboarding
-*D365 Development Training - Labels and Resources, Base Enumerations, Extended Data Types, Tables (Fields)</t>
-  </si>
-  <si>
-    <t>D365 Development Training - Resources, Base Enums, EDTs, Tables (Continuation)</t>
-  </si>
-  <si>
-    <t>D365 Development Training - Forms, Forms Creation, Menus</t>
-  </si>
-  <si>
     <t>Thu</t>
   </si>
   <si>
     <t>Fri</t>
   </si>
   <si>
-    <t>*D365 Development Training - X++ Overviw, Classes, Database, Manipulation, Exception Handling
-*D365 Development Training - Resources, Base Enums, EDTs, Tables (Activities)</t>
+    <t>D365 Development Training - EDTs, Tables</t>
   </si>
   <si>
-    <t>*D365 Development Training - X++ Overviw, Classes, Database, Manipulation, Exception Handling (Activities)
-*D365 Development Training - Code Extensions</t>
+    <t>D365 Development Training - Labels and Resources, Base Enumerations (Continuation)</t>
   </si>
   <si>
-    <t>D365 Development Training - Exception Handling, Code Extensions, Event Handling (Activities)</t>
+    <t>D365 Development Training - Labels and Resources, Base Enumerations</t>
   </si>
   <si>
-    <t>D365 Development Training - Reports (w/ Activities)</t>
+    <t>Internship Onboarding</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Forms, Form Creation</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Form Creation (Continuation)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - X++ Overview, Classes, Database Manipulation</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Labels and Resources, Base Enumerations, EDTs, Tables (Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - X++ Overview, Classes, Database Manipulation (Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Trainign - Code Extensions</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Exception Handling, Code Extensions (Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Event Handling (Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Reports</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Reports (Activities)</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1011,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="3"/>
@@ -2350,7 +2368,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2392,7 @@
     <col min="21" max="16384" width="9.140625" style="7" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +2424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -2418,7 +2436,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -2429,174 +2447,187 @@
         <v>98</v>
       </c>
       <c r="D5" s="28">
-        <v>44690</v>
+        <v>44809</v>
       </c>
       <c r="E5" s="37">
         <v>0.375</v>
       </c>
       <c r="F5" s="34">
-        <v>0.75347222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="G5" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:05</v>
-      </c>
-      <c r="H5" s="39"/>
+        <v>3:00</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="40" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="28">
-        <v>44721</v>
+        <v>44809</v>
       </c>
       <c r="E6" s="23">
-        <v>0.37638888888888888</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F6" s="23">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="G6" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:02</v>
-      </c>
-      <c r="H6" s="17"/>
+        <v>5:05</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="29">
-        <v>44751</v>
+      <c r="D7" s="28">
+        <v>44810</v>
       </c>
       <c r="E7" s="23">
-        <v>0.37847222222222227</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.7680555555555556</v>
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F7" s="34">
+        <v>0.5</v>
       </c>
       <c r="G7" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:21</v>
-      </c>
-      <c r="H7" s="17"/>
+        <v>2:58</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="29">
-        <v>44782</v>
+      <c r="D8" s="28">
+        <v>44810</v>
       </c>
       <c r="E8" s="37">
-        <v>0.375</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="F8" s="34">
-        <v>0.75</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="G8" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:00</v>
-      </c>
-      <c r="H8" s="17"/>
+        <v>5:04</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="29">
-        <v>44813</v>
-      </c>
-      <c r="E9" s="37">
-        <v>0.375</v>
+        <v>44811</v>
+      </c>
+      <c r="E9" s="23">
+        <v>0.37847222222222227</v>
       </c>
       <c r="F9" s="34">
-        <v>0.75555555555555554</v>
+        <v>0.5</v>
       </c>
       <c r="G9" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:08</v>
-      </c>
-      <c r="H9" s="17"/>
+        <v>2:55</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="15" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="K9" s="47"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="29">
-        <v>44904</v>
+        <v>44811</v>
       </c>
       <c r="E10" s="37">
-        <v>0.3756944444444445</v>
-      </c>
-      <c r="F10" s="34">
-        <v>0.75069444444444444</v>
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F10" s="23">
+        <v>0.7680555555555556</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:00</v>
-      </c>
-      <c r="H10" s="17"/>
+        <v>5:26</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2604,30 +2635,32 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="29">
-        <v>44817</v>
-      </c>
-      <c r="E11" s="23">
-        <v>0.37708333333333338</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.75208333333333333</v>
+        <v>44812</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0.5</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>9:00</v>
-      </c>
-      <c r="H11" s="17"/>
+        <v>3:00</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="12" t="s">
         <v>13</v>
       </c>
@@ -2635,152 +2668,237 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="32">
-        <f t="shared" ref="A12:A14" si="0">WEEKNUM(D12,2)</f>
         <v>1</v>
       </c>
       <c r="B12" s="32" t="str">
-        <f t="shared" ref="B12:B14" si="1">TEXT(D12,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
+        <f t="shared" ref="B12:B14" si="0">TEXT(D12,"ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="29">
+        <v>44812</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G12" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:00</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B13" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="29">
+        <v>44813</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G13" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:00</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="B14" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="29">
+        <v>44813</v>
+      </c>
+      <c r="E14" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0.75555555555555554</v>
+      </c>
       <c r="G14" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:08</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="32">
-        <f t="shared" ref="A15" si="2">WEEKNUM(D15,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B15" s="32" t="str">
-        <f t="shared" ref="B15" si="3">TEXT(D15,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="29">
+        <v>44816</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G15" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2:59</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="36">
-        <f>WEEKNUM(D16,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="36" t="str">
-        <f>TEXT(D16,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="29">
+        <v>44816</v>
+      </c>
+      <c r="E16" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F16" s="34">
+        <v>0.75069444444444444</v>
+      </c>
       <c r="G16" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
+        <v>5:01</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="36">
-        <f>WEEKNUM(D17,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B17" s="36" t="str">
-        <f>TEXT(D17,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="29">
+        <v>44817</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="39"/>
+        <v>2:57</v>
+      </c>
+      <c r="H17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="36">
-        <f>WEEKNUM(D18,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B18" s="36" t="str">
-        <f>TEXT(D18,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
+        <v>2</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="29">
+        <v>44817</v>
+      </c>
+      <c r="E18" s="37">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F18" s="23">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="G18" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="21"/>
+        <v>5:03</v>
+      </c>
+      <c r="H18" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
@@ -2805,11 +2923,11 @@
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f t="shared" ref="A20:A51" si="4">WEEKNUM(D20,2)</f>
+        <f t="shared" ref="A20:A51" si="1">WEEKNUM(D20,2)</f>
         <v>1</v>
       </c>
       <c r="B20" s="13" t="str">
-        <f t="shared" ref="B20:B51" si="5">TEXT(D20,"ddd")</f>
+        <f t="shared" ref="B20:B51" si="2">TEXT(D20,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C20" s="12"/>
@@ -2826,11 +2944,11 @@
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C21" s="12"/>
@@ -2847,11 +2965,11 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B22" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C22" s="12"/>
@@ -2868,11 +2986,11 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B23" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C23" s="12"/>
@@ -2889,11 +3007,11 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B24" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C24" s="12"/>
@@ -2910,11 +3028,11 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B25" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C25" s="12"/>
@@ -2928,18 +3046,18 @@
       <c r="H25" s="17"/>
       <c r="I25" s="12"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="47">
+      <c r="K25" s="46">
         <f>SUM(G4:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B26" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C26" s="12"/>
@@ -2956,11 +3074,11 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B27" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C27" s="12"/>
@@ -2977,11 +3095,11 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B28" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C28" s="12"/>
@@ -2998,11 +3116,11 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B29" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C29" s="12"/>
@@ -3019,11 +3137,11 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B30" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C30" s="12"/>
@@ -3040,11 +3158,11 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B31" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C31" s="12"/>
@@ -3061,11 +3179,11 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B32" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C32" s="12"/>
@@ -3082,11 +3200,11 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B33" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C33" s="12"/>
@@ -3103,11 +3221,11 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B34" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C34" s="43"/>
@@ -3124,11 +3242,11 @@
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B35" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C35" s="12"/>
@@ -3145,11 +3263,11 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B36" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C36" s="12"/>
@@ -3163,7 +3281,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="12"/>
       <c r="J36" s="21"/>
-      <c r="L36" s="47">
+      <c r="L36" s="46">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
@@ -3188,18 +3306,18 @@
       <c r="H37" s="17"/>
       <c r="I37" s="12"/>
       <c r="J37" s="39"/>
-      <c r="L37" s="47">
+      <c r="L37" s="46">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B38" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C38" s="12"/>
@@ -3216,11 +3334,11 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B39" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C39" s="12"/>
@@ -3237,11 +3355,11 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B40" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C40" s="12"/>
@@ -3258,11 +3376,11 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B41" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C41" s="12"/>
@@ -3279,11 +3397,11 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B42" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C42" s="12"/>
@@ -3300,11 +3418,11 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B43" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C43" s="12"/>
@@ -3321,11 +3439,11 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B44" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C44" s="12"/>
@@ -3342,11 +3460,11 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B45" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C45" s="12"/>
@@ -3363,11 +3481,11 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B46" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C46" s="12"/>
@@ -3384,11 +3502,11 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B47" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C47" s="12"/>
@@ -3405,11 +3523,11 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B48" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C48" s="12"/>
@@ -3426,11 +3544,11 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B49" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C49" s="12"/>
@@ -3447,11 +3565,11 @@
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B50" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C50" s="12"/>
@@ -3468,11 +3586,11 @@
     </row>
     <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="B51" s="13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C51" s="12"/>
@@ -3489,11 +3607,11 @@
     </row>
     <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <f t="shared" ref="A52:A83" si="6">WEEKNUM(D52,2)</f>
+        <f t="shared" ref="A52:A83" si="3">WEEKNUM(D52,2)</f>
         <v>1</v>
       </c>
       <c r="B52" s="13" t="str">
-        <f t="shared" ref="B52:B83" si="7">TEXT(D52,"ddd")</f>
+        <f t="shared" ref="B52:B83" si="4">TEXT(D52,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C52" s="12"/>
@@ -3510,11 +3628,11 @@
     </row>
     <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B53" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C53" s="12"/>
@@ -3531,11 +3649,11 @@
     </row>
     <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B54" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C54" s="12"/>
@@ -3552,11 +3670,11 @@
     </row>
     <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B55" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C55" s="12"/>
@@ -3573,11 +3691,11 @@
     </row>
     <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B56" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C56" s="12"/>
@@ -3594,11 +3712,11 @@
     </row>
     <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B57" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C57" s="12"/>
@@ -3615,11 +3733,11 @@
     </row>
     <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B58" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C58" s="12"/>
@@ -3636,11 +3754,11 @@
     </row>
     <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B59" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C59" s="12"/>
@@ -3657,11 +3775,11 @@
     </row>
     <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B60" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C60" s="12"/>
@@ -3678,11 +3796,11 @@
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B61" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C61" s="12"/>
@@ -3699,11 +3817,11 @@
     </row>
     <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B62" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C62" s="12"/>
@@ -3720,11 +3838,11 @@
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B63" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C63" s="12"/>
@@ -3741,11 +3859,11 @@
     </row>
     <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B64" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C64" s="12"/>
@@ -3762,11 +3880,11 @@
     </row>
     <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B65" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C65" s="12"/>
@@ -3783,11 +3901,11 @@
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B66" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C66" s="12"/>
@@ -3804,11 +3922,11 @@
     </row>
     <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B67" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C67" s="12"/>
@@ -3825,11 +3943,11 @@
     </row>
     <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B68" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C68" s="12"/>
@@ -3846,11 +3964,11 @@
     </row>
     <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B69" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C69" s="12"/>
@@ -3867,11 +3985,11 @@
     </row>
     <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B70" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C70" s="12"/>
@@ -3888,11 +4006,11 @@
     </row>
     <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B71" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C71" s="12"/>
@@ -3909,11 +4027,11 @@
     </row>
     <row r="72" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B72" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C72" s="12"/>
@@ -3930,11 +4048,11 @@
     </row>
     <row r="73" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B73" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C73" s="12"/>
@@ -3951,11 +4069,11 @@
     </row>
     <row r="74" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B74" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C74" s="12"/>
@@ -3972,11 +4090,11 @@
     </row>
     <row r="75" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B75" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C75" s="12"/>
@@ -3993,11 +4111,11 @@
     </row>
     <row r="76" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B76" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C76" s="12"/>
@@ -4014,11 +4132,11 @@
     </row>
     <row r="77" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B77" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C77" s="12"/>
@@ -4035,11 +4153,11 @@
     </row>
     <row r="78" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B78" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C78" s="12"/>
@@ -4056,11 +4174,11 @@
     </row>
     <row r="79" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B79" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C79" s="12"/>
@@ -4077,11 +4195,11 @@
     </row>
     <row r="80" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B80" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C80" s="12"/>
@@ -4098,11 +4216,11 @@
     </row>
     <row r="81" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B81" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C81" s="12"/>
@@ -4119,11 +4237,11 @@
     </row>
     <row r="82" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B82" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C82" s="12"/>
@@ -4140,11 +4258,11 @@
     </row>
     <row r="83" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B83" s="13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>Sat</v>
       </c>
       <c r="C83" s="12"/>
@@ -4161,11 +4279,11 @@
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
-        <f t="shared" ref="A84:A115" si="8">WEEKNUM(D84,2)</f>
+        <f t="shared" ref="A84:A115" si="5">WEEKNUM(D84,2)</f>
         <v>1</v>
       </c>
       <c r="B84" s="13" t="str">
-        <f t="shared" ref="B84:B115" si="9">TEXT(D84,"ddd")</f>
+        <f t="shared" ref="B84:B115" si="6">TEXT(D84,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C84" s="12"/>
@@ -4182,11 +4300,11 @@
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B85" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C85" s="12"/>
@@ -4203,11 +4321,11 @@
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B86" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C86" s="12"/>
@@ -4224,11 +4342,11 @@
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B87" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C87" s="12"/>
@@ -4245,11 +4363,11 @@
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B88" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C88" s="12"/>
@@ -4266,11 +4384,11 @@
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B89" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C89" s="12"/>
@@ -4287,11 +4405,11 @@
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B90" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C90" s="12"/>
@@ -4308,11 +4426,11 @@
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B91" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C91" s="12"/>
@@ -4329,11 +4447,11 @@
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B92" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C92" s="12"/>
@@ -4350,11 +4468,11 @@
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B93" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C93" s="12"/>
@@ -4371,11 +4489,11 @@
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B94" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C94" s="12"/>
@@ -4392,11 +4510,11 @@
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B95" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C95" s="12"/>
@@ -4413,11 +4531,11 @@
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B96" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C96" s="12"/>
@@ -4434,11 +4552,11 @@
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B97" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C97" s="12"/>
@@ -4455,11 +4573,11 @@
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B98" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C98" s="12"/>
@@ -4476,11 +4594,11 @@
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B99" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C99" s="12"/>
@@ -4497,11 +4615,11 @@
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B100" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C100" s="12"/>
@@ -4518,11 +4636,11 @@
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B101" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C101" s="12"/>
@@ -4539,11 +4657,11 @@
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B102" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C102" s="12"/>
@@ -4560,11 +4678,11 @@
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B103" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C103" s="12"/>
@@ -4581,11 +4699,11 @@
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B104" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C104" s="12"/>
@@ -4602,11 +4720,11 @@
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B105" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C105" s="12"/>
@@ -4623,11 +4741,11 @@
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B106" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C106" s="12"/>
@@ -4644,11 +4762,11 @@
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B107" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C107" s="12"/>
@@ -4665,11 +4783,11 @@
     </row>
     <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B108" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C108" s="12"/>
@@ -4686,11 +4804,11 @@
     </row>
     <row r="109" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B109" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C109" s="12"/>
@@ -4707,11 +4825,11 @@
     </row>
     <row r="110" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B110" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C110" s="12"/>
@@ -4728,11 +4846,11 @@
     </row>
     <row r="111" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B111" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C111" s="12"/>
@@ -4749,11 +4867,11 @@
     </row>
     <row r="112" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B112" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C112" s="12"/>
@@ -4770,11 +4888,11 @@
     </row>
     <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B113" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C113" s="12"/>
@@ -4791,11 +4909,11 @@
     </row>
     <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B114" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C114" s="12"/>
@@ -4812,11 +4930,11 @@
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="B115" s="13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C115" s="12"/>
@@ -4833,11 +4951,11 @@
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
-        <f t="shared" ref="A116:A149" si="10">WEEKNUM(D116,2)</f>
+        <f t="shared" ref="A116:A149" si="7">WEEKNUM(D116,2)</f>
         <v>1</v>
       </c>
       <c r="B116" s="13" t="str">
-        <f t="shared" ref="B116:B149" si="11">TEXT(D116,"ddd")</f>
+        <f t="shared" ref="B116:B149" si="8">TEXT(D116,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C116" s="12"/>
@@ -4854,11 +4972,11 @@
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B117" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C117" s="12"/>
@@ -4875,11 +4993,11 @@
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B118" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C118" s="12"/>
@@ -4896,11 +5014,11 @@
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B119" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C119" s="12"/>
@@ -4917,11 +5035,11 @@
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B120" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C120" s="12"/>
@@ -4938,11 +5056,11 @@
     </row>
     <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B121" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C121" s="12"/>
@@ -4959,11 +5077,11 @@
     </row>
     <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B122" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C122" s="12"/>
@@ -4980,11 +5098,11 @@
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B123" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C123" s="12"/>
@@ -5001,11 +5119,11 @@
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B124" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C124" s="12"/>
@@ -5022,11 +5140,11 @@
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B125" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C125" s="12"/>
@@ -5043,11 +5161,11 @@
     </row>
     <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B126" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C126" s="12"/>
@@ -5064,11 +5182,11 @@
     </row>
     <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B127" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C127" s="12"/>
@@ -5085,11 +5203,11 @@
     </row>
     <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B128" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C128" s="12"/>
@@ -5106,11 +5224,11 @@
     </row>
     <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B129" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C129" s="12"/>
@@ -5127,11 +5245,11 @@
     </row>
     <row r="130" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B130" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C130" s="12"/>
@@ -5148,11 +5266,11 @@
     </row>
     <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B131" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C131" s="12"/>
@@ -5169,11 +5287,11 @@
     </row>
     <row r="132" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B132" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C132" s="12"/>
@@ -5190,11 +5308,11 @@
     </row>
     <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B133" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C133" s="12"/>
@@ -5253,11 +5371,11 @@
     </row>
     <row r="136" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B136" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C136" s="12"/>
@@ -5274,11 +5392,11 @@
     </row>
     <row r="137" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B137" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C137" s="12"/>
@@ -5295,11 +5413,11 @@
     </row>
     <row r="138" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B138" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C138" s="12"/>
@@ -5316,11 +5434,11 @@
     </row>
     <row r="139" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B139" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C139" s="12"/>
@@ -5337,11 +5455,11 @@
     </row>
     <row r="140" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B140" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C140" s="12"/>
@@ -5358,11 +5476,11 @@
     </row>
     <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B141" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C141" s="12"/>
@@ -5379,11 +5497,11 @@
     </row>
     <row r="142" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B142" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C142" s="12"/>
@@ -5400,11 +5518,11 @@
     </row>
     <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B143" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C143" s="12"/>
@@ -5421,11 +5539,11 @@
     </row>
     <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B144" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C144" s="12"/>
@@ -5442,11 +5560,11 @@
     </row>
     <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B145" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C145" s="12"/>
@@ -5463,11 +5581,11 @@
     </row>
     <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B146" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C146" s="12"/>
@@ -5484,11 +5602,11 @@
     </row>
     <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B147" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C147" s="12"/>
@@ -5505,11 +5623,11 @@
     </row>
     <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B148" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C148" s="12"/>
@@ -5526,11 +5644,11 @@
     </row>
     <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="B149" s="13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C149" s="12"/>
@@ -5547,11 +5665,11 @@
     </row>
     <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
-        <f t="shared" ref="A150:A183" si="12">WEEKNUM(D150,2)</f>
+        <f t="shared" ref="A150:A183" si="9">WEEKNUM(D150,2)</f>
         <v>1</v>
       </c>
       <c r="B150" s="13" t="str">
-        <f t="shared" ref="B150:B183" si="13">TEXT(D150,"ddd")</f>
+        <f t="shared" ref="B150:B183" si="10">TEXT(D150,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C150" s="12"/>
@@ -5568,11 +5686,11 @@
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B151" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C151" s="12"/>
@@ -5589,11 +5707,11 @@
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B152" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C152" s="12"/>
@@ -5631,11 +5749,11 @@
     </row>
     <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B154" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C154" s="12"/>
@@ -5652,11 +5770,11 @@
     </row>
     <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B155" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C155" s="12"/>
@@ -5673,11 +5791,11 @@
     </row>
     <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B156" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C156" s="12"/>
@@ -5694,11 +5812,11 @@
     </row>
     <row r="157" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B157" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C157" s="12"/>
@@ -5715,11 +5833,11 @@
     </row>
     <row r="158" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B158" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C158" s="12"/>
@@ -5736,11 +5854,11 @@
     </row>
     <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B159" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C159" s="12"/>
@@ -5757,11 +5875,11 @@
     </row>
     <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B160" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C160" s="12"/>
@@ -5778,11 +5896,11 @@
     </row>
     <row r="161" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B161" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C161" s="12"/>
@@ -5799,11 +5917,11 @@
     </row>
     <row r="162" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B162" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C162" s="12"/>
@@ -5820,11 +5938,11 @@
     </row>
     <row r="163" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B163" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C163" s="12"/>
@@ -5841,11 +5959,11 @@
     </row>
     <row r="164" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B164" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C164" s="12"/>
@@ -5862,11 +5980,11 @@
     </row>
     <row r="165" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B165" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C165" s="12"/>
@@ -5883,11 +6001,11 @@
     </row>
     <row r="166" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B166" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C166" s="12"/>
@@ -5904,11 +6022,11 @@
     </row>
     <row r="167" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B167" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C167" s="12"/>
@@ -5925,11 +6043,11 @@
     </row>
     <row r="168" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B168" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C168" s="12"/>
@@ -5946,11 +6064,11 @@
     </row>
     <row r="169" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B169" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C169" s="12"/>
@@ -5967,11 +6085,11 @@
     </row>
     <row r="170" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B170" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C170" s="12"/>
@@ -5988,11 +6106,11 @@
     </row>
     <row r="171" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B171" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C171" s="12"/>
@@ -6009,11 +6127,11 @@
     </row>
     <row r="172" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B172" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C172" s="12"/>
@@ -6030,11 +6148,11 @@
     </row>
     <row r="173" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B173" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C173" s="12"/>
@@ -6051,11 +6169,11 @@
     </row>
     <row r="174" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B174" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C174" s="12"/>
@@ -6072,11 +6190,11 @@
     </row>
     <row r="175" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B175" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C175" s="12"/>
@@ -6093,11 +6211,11 @@
     </row>
     <row r="176" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B176" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C176" s="12"/>
@@ -6114,11 +6232,11 @@
     </row>
     <row r="177" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B177" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C177" s="12"/>
@@ -6135,11 +6253,11 @@
     </row>
     <row r="178" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B178" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C178" s="12"/>
@@ -6156,11 +6274,11 @@
     </row>
     <row r="179" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B179" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C179" s="12"/>
@@ -6177,11 +6295,11 @@
     </row>
     <row r="180" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B180" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C180" s="12"/>
@@ -6198,11 +6316,11 @@
     </row>
     <row r="181" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B181" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C181" s="12"/>
@@ -6240,11 +6358,11 @@
     </row>
     <row r="183" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="B183" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C183" s="12"/>
@@ -6261,11 +6379,11 @@
     </row>
     <row r="184" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
-        <f t="shared" ref="A184:A220" si="14">WEEKNUM(D184,2)</f>
+        <f t="shared" ref="A184:A220" si="11">WEEKNUM(D184,2)</f>
         <v>1</v>
       </c>
       <c r="B184" s="13" t="str">
-        <f t="shared" ref="B184:B215" si="15">TEXT(D184,"ddd")</f>
+        <f t="shared" ref="B184:B215" si="12">TEXT(D184,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C184" s="12"/>
@@ -6282,11 +6400,11 @@
     </row>
     <row r="185" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B185" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C185" s="12"/>
@@ -6303,11 +6421,11 @@
     </row>
     <row r="186" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B186" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C186" s="12"/>
@@ -6324,11 +6442,11 @@
     </row>
     <row r="187" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B187" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C187" s="12"/>
@@ -6345,11 +6463,11 @@
     </row>
     <row r="188" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B188" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C188" s="12"/>
@@ -6366,11 +6484,11 @@
     </row>
     <row r="189" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B189" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C189" s="12"/>
@@ -6387,11 +6505,11 @@
     </row>
     <row r="190" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B190" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C190" s="12"/>
@@ -6408,11 +6526,11 @@
     </row>
     <row r="191" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B191" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C191" s="12"/>
@@ -6429,11 +6547,11 @@
     </row>
     <row r="192" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B192" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C192" s="12"/>
@@ -6450,11 +6568,11 @@
     </row>
     <row r="193" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B193" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C193" s="12"/>
@@ -6471,11 +6589,11 @@
     </row>
     <row r="194" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B194" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C194" s="12"/>
@@ -6492,11 +6610,11 @@
     </row>
     <row r="195" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B195" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C195" s="12"/>
@@ -6513,11 +6631,11 @@
     </row>
     <row r="196" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B196" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C196" s="12"/>
@@ -6534,11 +6652,11 @@
     </row>
     <row r="197" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B197" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C197" s="12"/>
@@ -6555,11 +6673,11 @@
     </row>
     <row r="198" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B198" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C198" s="12"/>
@@ -6576,11 +6694,11 @@
     </row>
     <row r="199" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B199" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C199" s="12"/>
@@ -6597,11 +6715,11 @@
     </row>
     <row r="200" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B200" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C200" s="12"/>
@@ -6618,11 +6736,11 @@
     </row>
     <row r="201" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B201" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C201" s="12"/>
@@ -6639,11 +6757,11 @@
     </row>
     <row r="202" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B202" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C202" s="12"/>
@@ -6660,11 +6778,11 @@
     </row>
     <row r="203" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B203" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C203" s="12"/>
@@ -6681,11 +6799,11 @@
     </row>
     <row r="204" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B204" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C204" s="12"/>
@@ -6702,11 +6820,11 @@
     </row>
     <row r="205" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B205" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C205" s="12"/>
@@ -6723,11 +6841,11 @@
     </row>
     <row r="206" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B206" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C206" s="12"/>
@@ -6744,11 +6862,11 @@
     </row>
     <row r="207" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B207" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C207" s="12"/>
@@ -6765,11 +6883,11 @@
     </row>
     <row r="208" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B208" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C208" s="12"/>
@@ -6786,11 +6904,11 @@
     </row>
     <row r="209" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B209" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C209" s="12"/>
@@ -6807,11 +6925,11 @@
     </row>
     <row r="210" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B210" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C210" s="12"/>
@@ -6828,11 +6946,11 @@
     </row>
     <row r="211" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B211" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C211" s="12"/>
@@ -6849,11 +6967,11 @@
     </row>
     <row r="212" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B212" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C212" s="12"/>
@@ -6870,11 +6988,11 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B213" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C213" s="12"/>
@@ -6891,11 +7009,11 @@
     </row>
     <row r="214" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B214" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C214" s="12"/>
@@ -6912,11 +7030,11 @@
     </row>
     <row r="215" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B215" s="13" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C215" s="12"/>
@@ -6933,11 +7051,11 @@
     </row>
     <row r="216" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B216" s="13" t="str">
-        <f t="shared" ref="B216:B226" si="16">TEXT(D216,"ddd")</f>
+        <f t="shared" ref="B216:B226" si="13">TEXT(D216,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C216" s="12"/>
@@ -6954,11 +7072,11 @@
     </row>
     <row r="217" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B217" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C217" s="12"/>
@@ -6975,11 +7093,11 @@
     </row>
     <row r="218" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B218" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C218" s="12"/>
@@ -6996,11 +7114,11 @@
     </row>
     <row r="219" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B219" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C219" s="12"/>
@@ -7017,11 +7135,11 @@
     </row>
     <row r="220" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="B220" s="13" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C220" s="12"/>
@@ -7038,11 +7156,11 @@
     </row>
     <row r="221" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="36">
-        <f t="shared" ref="A221" si="17">WEEKNUM(D221,2)</f>
+        <f t="shared" ref="A221" si="14">WEEKNUM(D221,2)</f>
         <v>1</v>
       </c>
       <c r="B221" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C221" s="12"/>
@@ -7059,11 +7177,11 @@
     </row>
     <row r="222" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="36">
-        <f t="shared" ref="A222:A333" si="18">WEEKNUM(D222,2)</f>
+        <f t="shared" ref="A222:A333" si="15">WEEKNUM(D222,2)</f>
         <v>1</v>
       </c>
       <c r="B222" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C222" s="12"/>
@@ -7080,11 +7198,11 @@
     </row>
     <row r="223" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B223" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C223" s="12"/>
@@ -7101,11 +7219,11 @@
     </row>
     <row r="224" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B224" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C224" s="12"/>
@@ -7122,11 +7240,11 @@
     </row>
     <row r="225" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B225" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C225" s="12"/>
@@ -7147,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="B226" s="36" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Sat</v>
       </c>
       <c r="C226" s="12"/>
@@ -7164,11 +7282,11 @@
     </row>
     <row r="227" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="36">
-        <f t="shared" ref="A227:A250" si="19">WEEKNUM(D227,2)</f>
+        <f t="shared" ref="A227:A250" si="16">WEEKNUM(D227,2)</f>
         <v>1</v>
       </c>
       <c r="B227" s="36" t="str">
-        <f t="shared" ref="B227:B250" si="20">TEXT(D227,"ddd")</f>
+        <f t="shared" ref="B227:B250" si="17">TEXT(D227,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C227" s="12"/>
@@ -7185,11 +7303,11 @@
     </row>
     <row r="228" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B228" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C228" s="12"/>
@@ -7206,11 +7324,11 @@
     </row>
     <row r="229" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B229" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C229" s="12"/>
@@ -7227,11 +7345,11 @@
     </row>
     <row r="230" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B230" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C230" s="12"/>
@@ -7248,11 +7366,11 @@
     </row>
     <row r="231" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B231" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C231" s="12"/>
@@ -7269,11 +7387,11 @@
     </row>
     <row r="232" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B232" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C232" s="12"/>
@@ -7290,11 +7408,11 @@
     </row>
     <row r="233" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B233" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C233" s="12"/>
@@ -7311,11 +7429,11 @@
     </row>
     <row r="234" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B234" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C234" s="12"/>
@@ -7332,11 +7450,11 @@
     </row>
     <row r="235" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B235" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C235" s="12"/>
@@ -7353,11 +7471,11 @@
     </row>
     <row r="236" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B236" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C236" s="12"/>
@@ -7374,11 +7492,11 @@
     </row>
     <row r="237" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B237" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C237" s="12"/>
@@ -7395,11 +7513,11 @@
     </row>
     <row r="238" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B238" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C238" s="12"/>
@@ -7416,11 +7534,11 @@
     </row>
     <row r="239" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B239" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C239" s="12"/>
@@ -7437,11 +7555,11 @@
     </row>
     <row r="240" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B240" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C240" s="12"/>
@@ -7458,11 +7576,11 @@
     </row>
     <row r="241" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B241" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C241" s="12"/>
@@ -7479,11 +7597,11 @@
     </row>
     <row r="242" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B242" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C242" s="12"/>
@@ -7500,11 +7618,11 @@
     </row>
     <row r="243" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B243" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C243" s="12"/>
@@ -7521,11 +7639,11 @@
     </row>
     <row r="244" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B244" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C244" s="12"/>
@@ -7542,11 +7660,11 @@
     </row>
     <row r="245" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B245" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C245" s="12"/>
@@ -7563,11 +7681,11 @@
     </row>
     <row r="246" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B246" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C246" s="12"/>
@@ -7584,11 +7702,11 @@
     </row>
     <row r="247" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B247" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C247" s="12"/>
@@ -7605,11 +7723,11 @@
     </row>
     <row r="248" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B248" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C248" s="12"/>
@@ -7626,11 +7744,11 @@
     </row>
     <row r="249" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B249" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C249" s="12"/>
@@ -7647,11 +7765,11 @@
     </row>
     <row r="250" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="B250" s="36" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C250" s="12"/>
@@ -7668,11 +7786,11 @@
     </row>
     <row r="251" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="36">
-        <f t="shared" ref="A251:A263" si="21">WEEKNUM(D251,2)</f>
+        <f t="shared" ref="A251:A263" si="18">WEEKNUM(D251,2)</f>
         <v>1</v>
       </c>
       <c r="B251" s="36" t="str">
-        <f t="shared" ref="B251:B263" si="22">TEXT(D251,"ddd")</f>
+        <f t="shared" ref="B251:B263" si="19">TEXT(D251,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C251" s="12"/>
@@ -7689,11 +7807,11 @@
     </row>
     <row r="252" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B252" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C252" s="12"/>
@@ -7710,11 +7828,11 @@
     </row>
     <row r="253" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B253" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C253" s="12"/>
@@ -7731,11 +7849,11 @@
     </row>
     <row r="254" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B254" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C254" s="12"/>
@@ -7752,11 +7870,11 @@
     </row>
     <row r="255" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B255" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C255" s="12"/>
@@ -7773,11 +7891,11 @@
     </row>
     <row r="256" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B256" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C256" s="12"/>
@@ -7794,11 +7912,11 @@
     </row>
     <row r="257" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B257" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C257" s="12"/>
@@ -7815,11 +7933,11 @@
     </row>
     <row r="258" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B258" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C258" s="12"/>
@@ -7836,11 +7954,11 @@
     </row>
     <row r="259" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B259" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C259" s="12"/>
@@ -7857,11 +7975,11 @@
     </row>
     <row r="260" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B260" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C260" s="12"/>
@@ -7878,11 +7996,11 @@
     </row>
     <row r="261" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B261" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C261" s="12"/>
@@ -7899,11 +8017,11 @@
     </row>
     <row r="262" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B262" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C262" s="12"/>
@@ -7920,11 +8038,11 @@
     </row>
     <row r="263" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="B263" s="36" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C263" s="12"/>
@@ -7941,11 +8059,11 @@
     </row>
     <row r="264" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="36">
-        <f t="shared" ref="A264:A276" si="23">WEEKNUM(D264,2)</f>
+        <f t="shared" ref="A264:A276" si="20">WEEKNUM(D264,2)</f>
         <v>1</v>
       </c>
       <c r="B264" s="36" t="str">
-        <f t="shared" ref="B264:B276" si="24">TEXT(D264,"ddd")</f>
+        <f t="shared" ref="B264:B276" si="21">TEXT(D264,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C264" s="12"/>
@@ -7962,11 +8080,11 @@
     </row>
     <row r="265" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B265" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C265" s="12"/>
@@ -7983,11 +8101,11 @@
     </row>
     <row r="266" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B266" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C266" s="12"/>
@@ -8004,11 +8122,11 @@
     </row>
     <row r="267" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B267" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C267" s="12"/>
@@ -8025,11 +8143,11 @@
     </row>
     <row r="268" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B268" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C268" s="12"/>
@@ -8046,11 +8164,11 @@
     </row>
     <row r="269" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B269" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C269" s="12"/>
@@ -8067,11 +8185,11 @@
     </row>
     <row r="270" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B270" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C270" s="12"/>
@@ -8088,11 +8206,11 @@
     </row>
     <row r="271" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B271" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C271" s="12"/>
@@ -8109,11 +8227,11 @@
     </row>
     <row r="272" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B272" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C272" s="12"/>
@@ -8130,11 +8248,11 @@
     </row>
     <row r="273" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B273" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C273" s="12"/>
@@ -8151,11 +8269,11 @@
     </row>
     <row r="274" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B274" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C274" s="12"/>
@@ -8172,11 +8290,11 @@
     </row>
     <row r="275" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B275" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C275" s="12"/>
@@ -8193,11 +8311,11 @@
     </row>
     <row r="276" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="B276" s="36" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C276" s="12"/>
@@ -8214,11 +8332,11 @@
     </row>
     <row r="277" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="36">
-        <f t="shared" ref="A277:A289" si="25">WEEKNUM(D277,2)</f>
+        <f t="shared" ref="A277:A289" si="22">WEEKNUM(D277,2)</f>
         <v>1</v>
       </c>
       <c r="B277" s="36" t="str">
-        <f t="shared" ref="B277:B289" si="26">TEXT(D277,"ddd")</f>
+        <f t="shared" ref="B277:B289" si="23">TEXT(D277,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C277" s="12"/>
@@ -8235,11 +8353,11 @@
     </row>
     <row r="278" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B278" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C278" s="12"/>
@@ -8256,11 +8374,11 @@
     </row>
     <row r="279" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B279" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C279" s="12"/>
@@ -8277,11 +8395,11 @@
     </row>
     <row r="280" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B280" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C280" s="12"/>
@@ -8298,11 +8416,11 @@
     </row>
     <row r="281" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B281" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C281" s="12"/>
@@ -8319,11 +8437,11 @@
     </row>
     <row r="282" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B282" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C282" s="12"/>
@@ -8340,11 +8458,11 @@
     </row>
     <row r="283" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B283" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C283" s="12"/>
@@ -8361,11 +8479,11 @@
     </row>
     <row r="284" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B284" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C284" s="12"/>
@@ -8382,11 +8500,11 @@
     </row>
     <row r="285" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B285" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C285" s="12"/>
@@ -8403,11 +8521,11 @@
     </row>
     <row r="286" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B286" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C286" s="12"/>
@@ -8424,11 +8542,11 @@
     </row>
     <row r="287" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B287" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C287" s="12"/>
@@ -8445,11 +8563,11 @@
     </row>
     <row r="288" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B288" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C288" s="12"/>
@@ -8466,11 +8584,11 @@
     </row>
     <row r="289" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="B289" s="36" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C289" s="12"/>
@@ -8487,11 +8605,11 @@
     </row>
     <row r="290" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="36">
-        <f t="shared" ref="A290:A302" si="27">WEEKNUM(D290,2)</f>
+        <f t="shared" ref="A290:A302" si="24">WEEKNUM(D290,2)</f>
         <v>1</v>
       </c>
       <c r="B290" s="36" t="str">
-        <f t="shared" ref="B290:B302" si="28">TEXT(D290,"ddd")</f>
+        <f t="shared" ref="B290:B302" si="25">TEXT(D290,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C290" s="12"/>
@@ -8508,11 +8626,11 @@
     </row>
     <row r="291" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B291" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C291" s="12"/>
@@ -8529,11 +8647,11 @@
     </row>
     <row r="292" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B292" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C292" s="12"/>
@@ -8550,11 +8668,11 @@
     </row>
     <row r="293" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B293" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C293" s="12"/>
@@ -8571,11 +8689,11 @@
     </row>
     <row r="294" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B294" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C294" s="12"/>
@@ -8592,11 +8710,11 @@
     </row>
     <row r="295" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B295" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C295" s="12"/>
@@ -8613,11 +8731,11 @@
     </row>
     <row r="296" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B296" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C296" s="12"/>
@@ -8634,11 +8752,11 @@
     </row>
     <row r="297" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B297" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C297" s="12"/>
@@ -8655,11 +8773,11 @@
     </row>
     <row r="298" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B298" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C298" s="12"/>
@@ -8676,11 +8794,11 @@
     </row>
     <row r="299" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B299" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C299" s="12"/>
@@ -8697,11 +8815,11 @@
     </row>
     <row r="300" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B300" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C300" s="12"/>
@@ -8718,11 +8836,11 @@
     </row>
     <row r="301" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B301" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C301" s="12"/>
@@ -8739,11 +8857,11 @@
     </row>
     <row r="302" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="B302" s="36" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C302" s="12"/>
@@ -8760,11 +8878,11 @@
     </row>
     <row r="303" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="36">
-        <f t="shared" ref="A303:A306" si="29">WEEKNUM(D303,2)</f>
+        <f t="shared" ref="A303:A306" si="26">WEEKNUM(D303,2)</f>
         <v>1</v>
       </c>
       <c r="B303" s="36" t="str">
-        <f t="shared" ref="B303:B306" si="30">TEXT(D303,"ddd")</f>
+        <f t="shared" ref="B303:B306" si="27">TEXT(D303,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C303" s="12"/>
@@ -8781,11 +8899,11 @@
     </row>
     <row r="304" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="B304" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C304" s="12"/>
@@ -8802,11 +8920,11 @@
     </row>
     <row r="305" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="B305" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C305" s="12"/>
@@ -8823,11 +8941,11 @@
     </row>
     <row r="306" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="B306" s="36" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C306" s="12"/>
@@ -8844,11 +8962,11 @@
     </row>
     <row r="307" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="36">
-        <f t="shared" ref="A307:A310" si="31">WEEKNUM(D307,2)</f>
+        <f t="shared" ref="A307:A310" si="28">WEEKNUM(D307,2)</f>
         <v>1</v>
       </c>
       <c r="B307" s="36" t="str">
-        <f t="shared" ref="B307:B310" si="32">TEXT(D307,"ddd")</f>
+        <f t="shared" ref="B307:B310" si="29">TEXT(D307,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C307" s="12"/>
@@ -8865,11 +8983,11 @@
     </row>
     <row r="308" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B308" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C308" s="12"/>
@@ -8886,11 +9004,11 @@
     </row>
     <row r="309" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B309" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C309" s="12"/>
@@ -8907,11 +9025,11 @@
     </row>
     <row r="310" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="B310" s="36" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C310" s="12"/>
@@ -8928,11 +9046,11 @@
     </row>
     <row r="311" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="36">
-        <f t="shared" ref="A311:A314" si="33">WEEKNUM(D311,2)</f>
+        <f t="shared" ref="A311:A314" si="30">WEEKNUM(D311,2)</f>
         <v>1</v>
       </c>
       <c r="B311" s="36" t="str">
-        <f t="shared" ref="B311:B314" si="34">TEXT(D311,"ddd")</f>
+        <f t="shared" ref="B311:B314" si="31">TEXT(D311,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C311" s="12"/>
@@ -8949,11 +9067,11 @@
     </row>
     <row r="312" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="B312" s="36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C312" s="12"/>
@@ -8970,11 +9088,11 @@
     </row>
     <row r="313" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="B313" s="36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C313" s="12"/>
@@ -8991,11 +9109,11 @@
     </row>
     <row r="314" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>1</v>
       </c>
       <c r="B314" s="36" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C314" s="12"/>
@@ -9012,11 +9130,11 @@
     </row>
     <row r="315" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="36">
-        <f t="shared" ref="A315:A318" si="35">WEEKNUM(D315,2)</f>
+        <f t="shared" ref="A315:A318" si="32">WEEKNUM(D315,2)</f>
         <v>1</v>
       </c>
       <c r="B315" s="36" t="str">
-        <f t="shared" ref="B315:B318" si="36">TEXT(D315,"ddd")</f>
+        <f t="shared" ref="B315:B318" si="33">TEXT(D315,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C315" s="12"/>
@@ -9033,11 +9151,11 @@
     </row>
     <row r="316" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="B316" s="36" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C316" s="12"/>
@@ -9054,11 +9172,11 @@
     </row>
     <row r="317" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="B317" s="36" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C317" s="12"/>
@@ -9075,11 +9193,11 @@
     </row>
     <row r="318" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="B318" s="36" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C318" s="12"/>
@@ -9096,11 +9214,11 @@
     </row>
     <row r="319" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="36">
-        <f t="shared" ref="A319:A320" si="37">WEEKNUM(D319,2)</f>
+        <f t="shared" ref="A319:A320" si="34">WEEKNUM(D319,2)</f>
         <v>1</v>
       </c>
       <c r="B319" s="36" t="str">
-        <f t="shared" ref="B319:B320" si="38">TEXT(D319,"ddd")</f>
+        <f t="shared" ref="B319:B320" si="35">TEXT(D319,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C319" s="12"/>
@@ -9117,11 +9235,11 @@
     </row>
     <row r="320" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="B320" s="36" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="35"/>
         <v>Sat</v>
       </c>
       <c r="C320" s="12"/>
@@ -9159,11 +9277,11 @@
     </row>
     <row r="322" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="36">
-        <f t="shared" ref="A322:A327" si="39">WEEKNUM(D322,2)</f>
+        <f t="shared" ref="A322:A327" si="36">WEEKNUM(D322,2)</f>
         <v>1</v>
       </c>
       <c r="B322" s="36" t="str">
-        <f t="shared" ref="B322:B327" si="40">TEXT(D322,"ddd")</f>
+        <f t="shared" ref="B322:B327" si="37">TEXT(D322,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C322" s="12"/>
@@ -9180,11 +9298,11 @@
     </row>
     <row r="323" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="B323" s="36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C323" s="12"/>
@@ -9201,11 +9319,11 @@
     </row>
     <row r="324" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="B324" s="36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C324" s="12"/>
@@ -9222,11 +9340,11 @@
     </row>
     <row r="325" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="B325" s="36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C325" s="12"/>
@@ -9243,11 +9361,11 @@
     </row>
     <row r="326" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="B326" s="36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C326" s="12"/>
@@ -9264,11 +9382,11 @@
     </row>
     <row r="327" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="B327" s="36" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C327" s="12"/>
@@ -9285,11 +9403,11 @@
     </row>
     <row r="328" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="36">
-        <f t="shared" ref="A328:A330" si="41">WEEKNUM(D328,2)</f>
+        <f t="shared" ref="A328:A330" si="38">WEEKNUM(D328,2)</f>
         <v>1</v>
       </c>
       <c r="B328" s="36" t="str">
-        <f t="shared" ref="B328:B330" si="42">TEXT(D328,"ddd")</f>
+        <f t="shared" ref="B328:B330" si="39">TEXT(D328,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C328" s="12"/>
@@ -9306,11 +9424,11 @@
     </row>
     <row r="329" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="B329" s="36" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>Sat</v>
       </c>
       <c r="C329" s="12"/>
@@ -9327,11 +9445,11 @@
     </row>
     <row r="330" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="B330" s="36" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>Sat</v>
       </c>
       <c r="C330" s="12"/>
@@ -9390,7 +9508,7 @@
     </row>
     <row r="333" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="B333" s="36" t="str">
@@ -9432,11 +9550,11 @@
     </row>
     <row r="335" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="36">
-        <f t="shared" ref="A335:A336" si="43">WEEKNUM(D335,2)</f>
+        <f t="shared" ref="A335:A336" si="40">WEEKNUM(D335,2)</f>
         <v>1</v>
       </c>
       <c r="B335" s="36" t="str">
-        <f t="shared" ref="B335:B336" si="44">TEXT(D335,"ddd")</f>
+        <f t="shared" ref="B335:B336" si="41">TEXT(D335,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C335" s="12"/>
@@ -9453,11 +9571,11 @@
     </row>
     <row r="336" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="B336" s="36" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="41"/>
         <v>Sat</v>
       </c>
       <c r="C336" s="12"/>
@@ -9474,11 +9592,11 @@
     </row>
     <row r="337" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="36">
-        <f t="shared" ref="A337:A338" si="45">WEEKNUM(D337,2)</f>
+        <f t="shared" ref="A337:A338" si="42">WEEKNUM(D337,2)</f>
         <v>1</v>
       </c>
       <c r="B337" s="36" t="str">
-        <f t="shared" ref="B337:B338" si="46">TEXT(D337,"ddd")</f>
+        <f t="shared" ref="B337:B338" si="43">TEXT(D337,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C337" s="12"/>
@@ -9495,11 +9613,11 @@
     </row>
     <row r="338" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="B338" s="36" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="43"/>
         <v>Sat</v>
       </c>
       <c r="C338" s="12"/>
@@ -9558,11 +9676,11 @@
     </row>
     <row r="341" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="36">
-        <f t="shared" ref="A341:A344" si="47">WEEKNUM(D341,2)</f>
+        <f t="shared" ref="A341:A344" si="44">WEEKNUM(D341,2)</f>
         <v>1</v>
       </c>
       <c r="B341" s="36" t="str">
-        <f t="shared" ref="B341:B344" si="48">TEXT(D341,"ddd")</f>
+        <f t="shared" ref="B341:B344" si="45">TEXT(D341,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C341" s="12"/>
@@ -9579,11 +9697,11 @@
     </row>
     <row r="342" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="B342" s="36" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C342" s="12"/>
@@ -9600,11 +9718,11 @@
     </row>
     <row r="343" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="B343" s="36" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C343" s="12"/>
@@ -9621,11 +9739,11 @@
     </row>
     <row r="344" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="36">
-        <f t="shared" si="47"/>
+        <f t="shared" si="44"/>
         <v>1</v>
       </c>
       <c r="B344" s="36" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C344" s="12"/>
@@ -9642,11 +9760,11 @@
     </row>
     <row r="345" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="36">
-        <f t="shared" ref="A345:A347" si="49">WEEKNUM(D345,2)</f>
+        <f t="shared" ref="A345:A347" si="46">WEEKNUM(D345,2)</f>
         <v>1</v>
       </c>
       <c r="B345" s="36" t="str">
-        <f t="shared" ref="B345:B347" si="50">TEXT(D345,"ddd")</f>
+        <f t="shared" ref="B345:B347" si="47">TEXT(D345,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C345" s="12"/>
@@ -9663,11 +9781,11 @@
     </row>
     <row r="346" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="B346" s="36" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>Sat</v>
       </c>
       <c r="C346" s="12"/>
@@ -9684,11 +9802,11 @@
     </row>
     <row r="347" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="B347" s="36" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="47"/>
         <v>Sat</v>
       </c>
       <c r="C347" s="12"/>
@@ -9705,11 +9823,11 @@
     </row>
     <row r="348" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="36">
-        <f t="shared" ref="A348:A350" si="51">WEEKNUM(D348,2)</f>
+        <f t="shared" ref="A348:A350" si="48">WEEKNUM(D348,2)</f>
         <v>1</v>
       </c>
       <c r="B348" s="36" t="str">
-        <f t="shared" ref="B348:B350" si="52">TEXT(D348,"ddd")</f>
+        <f t="shared" ref="B348:B350" si="49">TEXT(D348,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C348" s="12"/>
@@ -9726,11 +9844,11 @@
     </row>
     <row r="349" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="B349" s="36" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>Sat</v>
       </c>
       <c r="C349" s="12"/>
@@ -9747,11 +9865,11 @@
     </row>
     <row r="350" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="36">
-        <f t="shared" si="51"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="B350" s="36" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v>Sat</v>
       </c>
       <c r="C350" s="12"/>
@@ -9768,11 +9886,11 @@
     </row>
     <row r="351" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="36">
-        <f t="shared" ref="A351:A353" si="53">WEEKNUM(D351,2)</f>
+        <f t="shared" ref="A351:A353" si="50">WEEKNUM(D351,2)</f>
         <v>1</v>
       </c>
       <c r="B351" s="36" t="str">
-        <f t="shared" ref="B351:B353" si="54">TEXT(D351,"ddd")</f>
+        <f t="shared" ref="B351:B353" si="51">TEXT(D351,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C351" s="12"/>
@@ -9789,11 +9907,11 @@
     </row>
     <row r="352" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="B352" s="36" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>Sat</v>
       </c>
       <c r="C352" s="12"/>
@@ -9810,11 +9928,11 @@
     </row>
     <row r="353" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="36">
-        <f t="shared" si="53"/>
+        <f t="shared" si="50"/>
         <v>1</v>
       </c>
       <c r="B353" s="36" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="51"/>
         <v>Sat</v>
       </c>
       <c r="C353" s="12"/>
@@ -9831,11 +9949,11 @@
     </row>
     <row r="354" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="36">
-        <f t="shared" ref="A354:A356" si="55">WEEKNUM(D354,2)</f>
+        <f t="shared" ref="A354:A356" si="52">WEEKNUM(D354,2)</f>
         <v>1</v>
       </c>
       <c r="B354" s="36" t="str">
-        <f t="shared" ref="B354:B356" si="56">TEXT(D354,"ddd")</f>
+        <f t="shared" ref="B354:B356" si="53">TEXT(D354,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C354" s="12"/>
@@ -9852,11 +9970,11 @@
     </row>
     <row r="355" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="B355" s="36" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>Sat</v>
       </c>
       <c r="C355" s="12"/>
@@ -9873,11 +9991,11 @@
     </row>
     <row r="356" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="36">
-        <f t="shared" si="55"/>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="B356" s="36" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="53"/>
         <v>Sat</v>
       </c>
       <c r="C356" s="12"/>
@@ -9894,11 +10012,11 @@
     </row>
     <row r="357" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="36">
-        <f t="shared" ref="A357:A358" si="57">WEEKNUM(D357,2)</f>
+        <f t="shared" ref="A357:A358" si="54">WEEKNUM(D357,2)</f>
         <v>1</v>
       </c>
       <c r="B357" s="36" t="str">
-        <f t="shared" ref="B357:B358" si="58">TEXT(D357,"ddd")</f>
+        <f t="shared" ref="B357:B358" si="55">TEXT(D357,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C357" s="12"/>
@@ -9915,11 +10033,11 @@
     </row>
     <row r="358" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="36">
-        <f t="shared" si="57"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="B358" s="36" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="55"/>
         <v>Sat</v>
       </c>
       <c r="C358" s="12"/>
@@ -9957,11 +10075,11 @@
     </row>
     <row r="360" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="36">
-        <f t="shared" ref="A360:A382" si="59">WEEKNUM(D360,2)</f>
+        <f t="shared" ref="A360:A382" si="56">WEEKNUM(D360,2)</f>
         <v>1</v>
       </c>
       <c r="B360" s="36" t="str">
-        <f t="shared" ref="B360:B382" si="60">TEXT(D360,"ddd")</f>
+        <f t="shared" ref="B360:B382" si="57">TEXT(D360,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C360" s="36"/>
@@ -9978,7 +10096,7 @@
     </row>
     <row r="361" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B361" s="36" t="str">
@@ -9999,11 +10117,11 @@
     </row>
     <row r="362" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B362" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C362" s="36"/>
@@ -10020,11 +10138,11 @@
     </row>
     <row r="363" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B363" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C363" s="36"/>
@@ -10041,11 +10159,11 @@
     </row>
     <row r="364" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B364" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C364" s="36"/>
@@ -10062,11 +10180,11 @@
     </row>
     <row r="365" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B365" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C365" s="36"/>
@@ -10083,11 +10201,11 @@
     </row>
     <row r="366" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B366" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C366" s="36"/>
@@ -10104,11 +10222,11 @@
     </row>
     <row r="367" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B367" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C367" s="36"/>
@@ -10125,11 +10243,11 @@
     </row>
     <row r="368" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B368" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C368" s="36"/>
@@ -10146,11 +10264,11 @@
     </row>
     <row r="369" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B369" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C369" s="36"/>
@@ -10167,11 +10285,11 @@
     </row>
     <row r="370" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B370" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C370" s="36"/>
@@ -10188,11 +10306,11 @@
     </row>
     <row r="371" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B371" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C371" s="36"/>
@@ -10209,11 +10327,11 @@
     </row>
     <row r="372" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B372" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C372" s="36"/>
@@ -10230,11 +10348,11 @@
     </row>
     <row r="373" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B373" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C373" s="36"/>
@@ -10251,11 +10369,11 @@
     </row>
     <row r="374" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B374" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C374" s="36"/>
@@ -10272,11 +10390,11 @@
     </row>
     <row r="375" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B375" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C375" s="36"/>
@@ -10293,11 +10411,11 @@
     </row>
     <row r="376" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B376" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C376" s="36"/>
@@ -10314,11 +10432,11 @@
     </row>
     <row r="377" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B377" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C377" s="36"/>
@@ -10335,11 +10453,11 @@
     </row>
     <row r="378" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B378" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C378" s="36"/>
@@ -10356,11 +10474,11 @@
     </row>
     <row r="379" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B379" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C379" s="36"/>
@@ -10377,11 +10495,11 @@
     </row>
     <row r="380" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B380" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C380" s="36"/>
@@ -10398,11 +10516,11 @@
     </row>
     <row r="381" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B381" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C381" s="36"/>
@@ -10419,11 +10537,11 @@
     </row>
     <row r="382" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="36">
-        <f t="shared" si="59"/>
+        <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="B382" s="36" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C382" s="36"/>
@@ -10440,11 +10558,11 @@
     </row>
     <row r="383" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="36">
-        <f t="shared" ref="A383:A391" si="61">WEEKNUM(D383,2)</f>
+        <f t="shared" ref="A383:A391" si="58">WEEKNUM(D383,2)</f>
         <v>1</v>
       </c>
       <c r="B383" s="36" t="str">
-        <f t="shared" ref="B383:B391" si="62">TEXT(D383,"ddd")</f>
+        <f t="shared" ref="B383:B391" si="59">TEXT(D383,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C383" s="36"/>
@@ -10461,11 +10579,11 @@
     </row>
     <row r="384" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B384" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C384" s="36"/>
@@ -10482,11 +10600,11 @@
     </row>
     <row r="385" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B385" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C385" s="36"/>
@@ -10503,11 +10621,11 @@
     </row>
     <row r="386" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B386" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C386" s="36"/>
@@ -10524,11 +10642,11 @@
     </row>
     <row r="387" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B387" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C387" s="36"/>
@@ -10545,11 +10663,11 @@
     </row>
     <row r="388" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B388" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C388" s="36"/>
@@ -10566,11 +10684,11 @@
     </row>
     <row r="389" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B389" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C389" s="36"/>
@@ -10587,11 +10705,11 @@
     </row>
     <row r="390" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B390" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C390" s="36"/>
@@ -10608,11 +10726,11 @@
     </row>
     <row r="391" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="36">
-        <f t="shared" si="61"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="B391" s="36" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C391" s="36"/>
@@ -15019,21 +15137,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15177,23 +15280,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15209,4 +15311,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
   <si>
     <t>Week</t>
   </si>
@@ -393,6 +393,18 @@
   </si>
   <si>
     <t>D365 Development Training - Reports (Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Reports (Continuation w/ Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Security Basics, Data Entities</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Reports (Finalization w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Security Basics, Data Entities (Continuation w/Activities)</t>
   </si>
 </sst>
 </file>
@@ -920,7 +932,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -996,9 +1008,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2368,7 +2377,7 @@
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2609,7 @@
       <c r="J9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="47"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -2673,7 +2682,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="32" t="str">
-        <f t="shared" ref="B12:B14" si="0">TEXT(D12,"ddd")</f>
+        <f t="shared" ref="B12" si="0">TEXT(D12,"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="C12" s="12" t="s">
@@ -2902,137 +2911,213 @@
     </row>
     <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="32">
-        <f>WEEKNUM(D19,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="32" t="str">
-        <f>TEXT(D19,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="30">
+        <v>44818</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F19" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G19" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="15"/>
+        <v>2:58</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
-        <f t="shared" ref="A20:A51" si="1">WEEKNUM(D20,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B20" s="13" t="str">
-        <f t="shared" ref="B20:B51" si="2">TEXT(D20,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="30">
+        <v>44818</v>
+      </c>
+      <c r="E20" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0.75138888888888899</v>
+      </c>
       <c r="G20" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="15"/>
+        <v>5:02</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
+        <f t="shared" ref="B20:B51" si="1">TEXT(D21,"ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="30">
+        <v>44819</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F21" s="23">
+        <v>0.5</v>
+      </c>
       <c r="G21" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="15"/>
+        <v>2:58</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
+        <v>2</v>
+      </c>
+      <c r="B22" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B22" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
+        <v>Thu</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="30">
+        <v>44819</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0.75138888888888899</v>
+      </c>
       <c r="G22" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="15"/>
+        <v>5:02</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
+        <v>2</v>
+      </c>
+      <c r="B23" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B23" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
+        <v>Fri</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="30">
+        <v>44820</v>
+      </c>
+      <c r="E23" s="34">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="G23" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="41"/>
+        <v>3:08</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
+        <v>Fri</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="30">
+        <v>44820</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0.75694444444444453</v>
+      </c>
       <c r="G24" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="15"/>
+        <v>4:53</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
+        <f t="shared" ref="A20:A51" si="2">WEEKNUM(D25,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B25" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C25" s="12"/>
@@ -3046,18 +3131,18 @@
       <c r="H25" s="17"/>
       <c r="I25" s="12"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="46">
+      <c r="K25" s="45">
         <f>SUM(G4:G19)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B26" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C26" s="12"/>
@@ -3074,11 +3159,11 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B27" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C27" s="12"/>
@@ -3095,11 +3180,11 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B28" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B28" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C28" s="12"/>
@@ -3116,11 +3201,11 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B29" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B29" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C29" s="12"/>
@@ -3137,11 +3222,11 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B30" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C30" s="12"/>
@@ -3158,11 +3243,11 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C31" s="12"/>
@@ -3179,11 +3264,11 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B32" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C32" s="12"/>
@@ -3200,11 +3285,11 @@
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B33" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B33" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C33" s="12"/>
@@ -3221,32 +3306,32 @@
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B34" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C34" s="43"/>
+        <v>Sat</v>
+      </c>
+      <c r="C34" s="42"/>
       <c r="D34" s="28"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
       <c r="G34" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
         <v>0:00</v>
       </c>
-      <c r="H34" s="45"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="42"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B35" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B35" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C35" s="12"/>
@@ -3263,11 +3348,11 @@
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B36" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B36" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C36" s="12"/>
@@ -3281,7 +3366,7 @@
       <c r="H36" s="17"/>
       <c r="I36" s="12"/>
       <c r="J36" s="21"/>
-      <c r="L36" s="46">
+      <c r="L36" s="45">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
@@ -3306,18 +3391,18 @@
       <c r="H37" s="17"/>
       <c r="I37" s="12"/>
       <c r="J37" s="39"/>
-      <c r="L37" s="46">
+      <c r="L37" s="45">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B38" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C38" s="12"/>
@@ -3334,11 +3419,11 @@
     </row>
     <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B39" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B39" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C39" s="12"/>
@@ -3355,11 +3440,11 @@
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B40" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B40" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C40" s="12"/>
@@ -3376,11 +3461,11 @@
     </row>
     <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B41" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B41" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C41" s="12"/>
@@ -3397,11 +3482,11 @@
     </row>
     <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B42" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B42" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C42" s="12"/>
@@ -3418,11 +3503,11 @@
     </row>
     <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B43" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B43" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C43" s="12"/>
@@ -3439,11 +3524,11 @@
     </row>
     <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B44" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B44" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C44" s="12"/>
@@ -3460,11 +3545,11 @@
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B45" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B45" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C45" s="12"/>
@@ -3481,11 +3566,11 @@
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B46" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B46" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C46" s="12"/>
@@ -3502,11 +3587,11 @@
     </row>
     <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B47" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B47" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C47" s="12"/>
@@ -3523,11 +3608,11 @@
     </row>
     <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B48" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B48" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C48" s="12"/>
@@ -3544,11 +3629,11 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B49" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B49" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C49" s="12"/>
@@ -3565,11 +3650,11 @@
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B50" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B50" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C50" s="12"/>
@@ -3586,11 +3671,11 @@
     </row>
     <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="B51" s="13" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="B51" s="13" t="str">
-        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C51" s="12"/>
@@ -15137,6 +15222,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15280,22 +15380,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15311,28 +15420,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>Week</t>
   </si>
@@ -405,6 +405,15 @@
   </si>
   <si>
     <t>D365 Development Training - Security Basics, Data Entities (Continuation w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Version Control, Power BI</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Exporting Projects, Data Entities (Continuation w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Data Entities, Power BI (Finalization w/Activities)</t>
   </si>
 </sst>
 </file>
@@ -2374,10 +2383,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,7 +2989,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" ref="B20:B51" si="1">TEXT(D21,"ddd")</f>
+        <f t="shared" ref="B21:B51" si="1">TEXT(D21,"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3113,24 +3122,36 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
-        <f t="shared" ref="A20:A51" si="2">WEEKNUM(D25,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="28">
+        <v>44823</v>
+      </c>
+      <c r="E25" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F25" s="34">
+        <v>0.53263888888888888</v>
+      </c>
       <c r="G25" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="15"/>
+        <v>3:47</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>120</v>
+      </c>
       <c r="K25" s="45">
         <f>SUM(G4:G19)</f>
         <v>0</v>
@@ -3138,49 +3159,71 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B26" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="28">
+        <v>44823</v>
+      </c>
+      <c r="E26" s="34">
+        <v>0.56527777777777777</v>
+      </c>
+      <c r="F26" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G26" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="15"/>
+        <v>4:26</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B27" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="28">
+        <v>44824</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0.37638888888888888</v>
+      </c>
       <c r="F27" s="34"/>
-      <c r="G27" s="14" t="str">
-        <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="15"/>
+      <c r="G27" s="14" t="e">
+        <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A27:A51" si="2">WEEKNUM(D28,2)</f>
         <v>1</v>
       </c>
       <c r="B28" s="13" t="str">
@@ -3366,9 +3409,9 @@
       <c r="H36" s="17"/>
       <c r="I36" s="12"/>
       <c r="J36" s="21"/>
-      <c r="L36" s="45">
+      <c r="L36" s="45" t="e">
         <f>SUM(G4:G29)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3391,9 +3434,9 @@
       <c r="H37" s="17"/>
       <c r="I37" s="12"/>
       <c r="J37" s="39"/>
-      <c r="L37" s="45">
+      <c r="L37" s="45" t="e">
         <f>SUM(G4:G29)</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">

--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
   <si>
     <t>Week</t>
   </si>
@@ -413,7 +413,13 @@
     <t>D365 Development Training - Exporting Projects, Data Entities (Continuation w/Activities)</t>
   </si>
   <si>
-    <t>D365 Development Training - Data Entities, Power BI (Finalization w/Activities)</t>
+    <t>D365 Development Training - Data Entities (Continuation w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Power BI (Continuation w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Data Entities (Finalization w/Activities)</t>
   </si>
 </sst>
 </file>
@@ -2383,10 +2389,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,10 +3212,12 @@
       <c r="E27" s="34">
         <v>0.37638888888888888</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="14" t="e">
-        <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>#VALUE!</v>
+      <c r="F27" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
+        <v>2:58</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>15</v>
@@ -3223,57 +3231,83 @@
     </row>
     <row r="28" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
-        <f t="shared" ref="A27:A51" si="2">WEEKNUM(D28,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B28" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="28">
+        <v>44824</v>
+      </c>
+      <c r="E28" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F28" s="34">
+        <v>0.75138888888888899</v>
+      </c>
       <c r="G28" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="15"/>
+        <v>5:02</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B29" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="28">
+        <v>44825</v>
+      </c>
+      <c r="E29" s="34">
+        <v>0.3756944444444445</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G29" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H29" s="17"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="21"/>
+        <v>3:59</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B30" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="28"/>
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="28">
+        <v>44825</v>
+      </c>
       <c r="E30" s="34"/>
       <c r="F30" s="34"/>
       <c r="G30" s="14" t="str">
@@ -3286,7 +3320,7 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A28:A51" si="2">WEEKNUM(D31,2)</f>
         <v>1</v>
       </c>
       <c r="B31" s="13" t="str">
@@ -3409,9 +3443,9 @@
       <c r="H36" s="17"/>
       <c r="I36" s="12"/>
       <c r="J36" s="21"/>
-      <c r="L36" s="45" t="e">
+      <c r="L36" s="45">
         <f>SUM(G4:G29)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3434,9 +3468,9 @@
       <c r="H37" s="17"/>
       <c r="I37" s="12"/>
       <c r="J37" s="39"/>
-      <c r="L37" s="45" t="e">
+      <c r="L37" s="45">
         <f>SUM(G4:G29)</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -15265,21 +15299,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15423,31 +15442,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15463,4 +15473,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
   <si>
     <t>Week</t>
   </si>
@@ -420,6 +420,21 @@
   </si>
   <si>
     <t>D365 Development Training - Data Entities (Finalization w/Activities)</t>
+  </si>
+  <si>
+    <t>D365 Development Training - Power BI (Finalization w/Activities)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D365 Development Training - Exporting Projects </t>
+  </si>
+  <si>
+    <t>D365 Development Training - Exporting Projects (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Setup</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Setup (Continuation)</t>
   </si>
 </sst>
 </file>
@@ -947,7 +962,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1031,9 +1046,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -2389,10 +2401,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2636,7 @@
       <c r="J9" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="46"/>
+      <c r="K9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
@@ -3158,7 +3170,7 @@
       <c r="J25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="K25" s="45">
+      <c r="K25" s="44">
         <f>SUM(G4:G19)</f>
         <v>0</v>
       </c>
@@ -3279,11 +3291,11 @@
         <v>0.3756944444444445</v>
       </c>
       <c r="F29" s="34">
-        <v>0.54166666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>3:59</v>
+        <v>2:59</v>
       </c>
       <c r="H29" s="17" t="s">
         <v>15</v>
@@ -3308,142 +3320,224 @@
       <c r="D30" s="28">
         <v>44825</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="E30" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F30" s="34">
+        <v>0.76458333333333339</v>
+      </c>
       <c r="G30" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H30" s="17"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="21"/>
+        <v>5:21</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
-        <f t="shared" ref="A28:A51" si="2">WEEKNUM(D31,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B31" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="28">
+        <v>44826</v>
+      </c>
+      <c r="E31" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F31" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G31" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B32" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="28">
+        <v>44826</v>
+      </c>
+      <c r="E32" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F32" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G32" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="21"/>
+        <v>5:00</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="33" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B33" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
+        <v>3</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="28">
+        <v>44827</v>
+      </c>
+      <c r="E33" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F33" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G33" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H33" s="17"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="34" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B34" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
+        <v>3</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="28">
+        <v>44827</v>
+      </c>
+      <c r="E34" s="43">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F34" s="43">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="G34" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H34" s="44"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41"/>
+        <v>5:20</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B35" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="28">
+        <v>44830</v>
+      </c>
+      <c r="E35" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F35" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G35" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B36" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="28">
+        <v>44830</v>
+      </c>
+      <c r="E36" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F36" s="34">
+        <v>0.75416666666666676</v>
+      </c>
       <c r="G36" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H36" s="17"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="21"/>
-      <c r="L36" s="45">
+        <v>5:06</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="44">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
@@ -3468,14 +3562,14 @@
       <c r="H37" s="17"/>
       <c r="I37" s="12"/>
       <c r="J37" s="39"/>
-      <c r="L37" s="45">
+      <c r="L37" s="44">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A31:A51" si="2">WEEKNUM(D38,2)</f>
         <v>1</v>
       </c>
       <c r="B38" s="13" t="str">
@@ -15299,6 +15393,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15442,22 +15551,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15473,28 +15591,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
   <si>
     <t>Week</t>
   </si>
@@ -435,6 +435,21 @@
   </si>
   <si>
     <t>RLC - Customer Aging Report - Commercial Setup (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Defining Data Provider, Contract, and Controller classes</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Creating Menu Extensions, Menu Items for Report</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Creating and Defining Report and Report parameters</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Mapping out details of report from user requirements document</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Collecting information of needed fields from various forms for report</t>
   </si>
 </sst>
 </file>
@@ -2401,10 +2416,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J36" sqref="J36"/>
+      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3430,7 +3445,7 @@
         <v>3:00</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>13</v>
@@ -3463,7 +3478,7 @@
         <v>5:20</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>13</v>
@@ -3472,7 +3487,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>4</v>
       </c>
@@ -3496,13 +3511,13 @@
         <v>3:00</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
@@ -3529,89 +3544,125 @@
         <v>5:06</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>13</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L36" s="44">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="36">
-        <f>WEEKNUM(D37,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B37" s="36" t="str">
-        <f>TEXT(D37,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+        <v>4</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="28">
+        <v>44831</v>
+      </c>
+      <c r="E37" s="37">
+        <v>0.375</v>
+      </c>
+      <c r="F37" s="37">
+        <v>0.5</v>
+      </c>
       <c r="G37" s="38" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="39"/>
+        <v>3:00</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>131</v>
+      </c>
       <c r="L37" s="44">
         <f>SUM(G4:G29)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
-        <f t="shared" ref="A31:A51" si="2">WEEKNUM(D38,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B38" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="28">
+        <v>44831</v>
+      </c>
+      <c r="E38" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F38" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G38" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:00</v>
+      </c>
+      <c r="H38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B39" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="28">
+        <v>44832</v>
+      </c>
+      <c r="E39" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F39" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G39" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H39" s="17"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A40:A51" si="2">WEEKNUM(D40,2)</f>
         <v>1</v>
       </c>
       <c r="B40" s="13" t="str">
@@ -15028,7 +15079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cueva Family\Desktop\X++ Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MIG\Project Солженицын\X++ Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="155">
   <si>
     <t>Week</t>
   </si>
@@ -450,6 +450,69 @@
   </si>
   <si>
     <t>RLC - Customer Aging Report - Commercial Collecting information of needed fields from various forms for report</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Created queries and setup what tables to use for DP class</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Created queries and setup what tables to use for DP class (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Collecting information of needed fields from various forms for report (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Identifying relations between each table needed for the selection of data</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Identifying relations between each table needed for the selection of data (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Creating ranges for query objects</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Prioritized selecting important records from necessary tables for report layout</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Created official temporary table for report layout to use</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Understanding how ranges for query objects work</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Understanding how ranges for query objects work (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Understanding how query lookups work</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Understood query lookups, started implementing query in data provider class</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial Understood query lookups, started implementing query in data provider class (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial selecting tables using user query implementation</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Commercial selecting tables using user query implementation (Continuation)</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Tried Changing query object structure to fix no selected tables via user query problem</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Tried Changing query object structure to fix no selected tables via user query problem (Continuation</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Restructured query object again through its relations and nodes, fixed finally no selected tables via user query problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RLC - Customer Aging Report - Updated data provider class and used selected tables from user query to assign values to the fields of report temporary table, </t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - showed records/transactions in report layout</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Updated report temporary table for report layout</t>
   </si>
 </sst>
 </file>
@@ -2168,23 +2231,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2220,23 +2266,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2416,10 +2445,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J42" sqref="J42"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3051,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="13" t="str">
-        <f t="shared" ref="B21:B51" si="1">TEXT(D21,"ddd")</f>
+        <f t="shared" ref="B21:B24" si="1">TEXT(D21,"ddd")</f>
         <v>Thu</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -3660,496 +3689,770 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
-        <f t="shared" ref="A40:A51" si="2">WEEKNUM(D40,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B40" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="28">
+        <v>44832</v>
+      </c>
+      <c r="E40" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F40" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G40" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H40" s="17"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:00</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B41" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="28">
+        <v>44833</v>
+      </c>
+      <c r="E41" s="34">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G41" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H41" s="17"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2:56</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B42" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="28">
+        <v>44833</v>
+      </c>
+      <c r="E42" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H42" s="17"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:00</v>
+      </c>
+      <c r="H42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B43" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="28">
+        <v>44834</v>
+      </c>
+      <c r="E43" s="34">
+        <v>0.37638888888888888</v>
+      </c>
+      <c r="F43" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G43" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="21"/>
-    </row>
-    <row r="44" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2:58</v>
+      </c>
+      <c r="H43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B44" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="28">
+        <v>44834</v>
+      </c>
+      <c r="E44" s="34">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F44" s="34">
+        <v>0.75486111111111109</v>
+      </c>
       <c r="G44" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H44" s="17"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="21"/>
+        <v>17:07</v>
+      </c>
+      <c r="H44" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="21" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="45" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B45" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="28">
+        <v>44837</v>
+      </c>
+      <c r="E45" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F45" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G45" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H45" s="17"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H45" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="46" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B46" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" s="28">
+        <v>44837</v>
+      </c>
+      <c r="E46" s="34">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="F46" s="34">
+        <v>0.75486111111111109</v>
+      </c>
       <c r="G46" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H46" s="17"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="21"/>
-    </row>
-    <row r="47" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:52</v>
+      </c>
+      <c r="H46" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B47" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="28">
+        <v>44838</v>
+      </c>
+      <c r="E47" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F47" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G47" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H47" s="17"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="21"/>
-    </row>
-    <row r="48" spans="1:12" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:00</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B48" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="28">
+        <v>44838</v>
+      </c>
+      <c r="E48" s="34">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F48" s="34">
+        <v>0.75138888888888899</v>
+      </c>
       <c r="G48" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H48" s="17"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="21"/>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:52</v>
+      </c>
+      <c r="H48" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B49" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="28">
+        <v>44839</v>
+      </c>
+      <c r="E49" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F49" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G49" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H49" s="17"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B50" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="28">
+        <v>44839</v>
+      </c>
+      <c r="E50" s="34">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F50" s="34">
+        <v>0.75069444444444444</v>
+      </c>
       <c r="G50" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H50" s="17"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="21"/>
-    </row>
-    <row r="51" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:41</v>
+      </c>
+      <c r="H50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="B51" s="13" t="str">
-        <f t="shared" si="1"/>
-        <v>Sat</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="28">
+        <v>44840</v>
+      </c>
+      <c r="E51" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F51" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G51" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H51" s="17"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="21"/>
-    </row>
-    <row r="52" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:00</v>
+      </c>
+      <c r="H51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
-        <f t="shared" ref="A52:A83" si="3">WEEKNUM(D52,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B52" s="13" t="str">
-        <f t="shared" ref="B52:B83" si="4">TEXT(D52,"ddd")</f>
-        <v>Sat</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="28">
+        <v>44840</v>
+      </c>
+      <c r="E52" s="34">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F52" s="34">
+        <v>0.76944444444444438</v>
+      </c>
       <c r="G52" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H52" s="17"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="21"/>
+        <v>5:18</v>
+      </c>
+      <c r="H52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="53" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B53" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="28">
+        <v>44841</v>
+      </c>
+      <c r="E53" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F53" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G53" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
       <c r="H53" s="17"/>
       <c r="I53" s="12"/>
-      <c r="J53" s="21"/>
-    </row>
-    <row r="54" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="J53" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B54" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
+        <v>5</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="28">
+        <v>44841</v>
+      </c>
+      <c r="E54" s="34">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F54" s="34">
+        <v>0.7631944444444444</v>
+      </c>
       <c r="G54" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5:19</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B55" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="28">
+        <v>44844</v>
+      </c>
+      <c r="E55" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F55" s="34">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G55" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H55" s="17"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:00</v>
+      </c>
+      <c r="H55" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B56" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="28">
+        <v>44844</v>
+      </c>
+      <c r="E56" s="34">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F56" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G56" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="21"/>
-    </row>
-    <row r="57" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:55</v>
+      </c>
+      <c r="H56" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B57" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="28">
+        <v>44845</v>
+      </c>
+      <c r="E57" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F57" s="34">
+        <v>0.5</v>
+      </c>
       <c r="G57" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H57" s="17"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:00</v>
+      </c>
+      <c r="H57" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B58" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D58" s="28">
+        <v>44845</v>
+      </c>
+      <c r="E58" s="34">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="F58" s="34">
+        <v>0.75</v>
+      </c>
       <c r="G58" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="21"/>
-    </row>
-    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:50</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B59" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
+        <f t="shared" ref="B59:B83" si="2">TEXT(D59,"ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="28">
+        <v>44846</v>
+      </c>
+      <c r="E59" s="34">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F59" s="34">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="G59" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H59" s="17"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3:03</v>
+      </c>
+      <c r="H59" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B60" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
+        <f t="shared" si="2"/>
+        <v>Wed</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="28">
+        <v>44846</v>
+      </c>
+      <c r="E60" s="34">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="F60" s="34">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="G60" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H60" s="17"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="21"/>
+        <v>4:17</v>
+      </c>
+      <c r="H60" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" s="21" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B61" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D61" s="28">
+        <v>44847</v>
+      </c>
+      <c r="E61" s="34">
+        <v>0.37708333333333338</v>
+      </c>
+      <c r="F61" s="34">
+        <v>0.50208333333333333</v>
+      </c>
       <c r="G61" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H61" s="17"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="21"/>
+        <v>3:00</v>
+      </c>
+      <c r="H61" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="21" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B62" s="13" t="str">
-        <f t="shared" si="4"/>
-        <v>Sat</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="28">
+        <v>44847</v>
+      </c>
+      <c r="E62" s="34">
+        <v>0.54375000000000007</v>
+      </c>
+      <c r="F62" s="34">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="G62" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="21"/>
+        <v>5:00</v>
+      </c>
+      <c r="H62" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="21" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A61:A83" si="3">WEEKNUM(D63,2)</f>
         <v>1</v>
       </c>
       <c r="B63" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C63" s="12"/>
@@ -4170,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="B64" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C64" s="12"/>
@@ -4191,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="B65" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C65" s="12"/>
@@ -4212,7 +4515,7 @@
         <v>1</v>
       </c>
       <c r="B66" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C66" s="12"/>
@@ -4233,7 +4536,7 @@
         <v>1</v>
       </c>
       <c r="B67" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C67" s="12"/>
@@ -4254,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C68" s="12"/>
@@ -4275,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="B69" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C69" s="12"/>
@@ -4296,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="B70" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C70" s="12"/>
@@ -4317,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="B71" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C71" s="12"/>
@@ -4338,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="B72" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C72" s="12"/>
@@ -4359,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C73" s="12"/>
@@ -4380,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="B74" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C74" s="12"/>
@@ -4401,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="B75" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C75" s="12"/>
@@ -4422,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="B76" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C76" s="12"/>
@@ -4443,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="B77" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C77" s="12"/>
@@ -4464,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="B78" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C78" s="12"/>
@@ -4485,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C79" s="12"/>
@@ -4506,7 +4809,7 @@
         <v>1</v>
       </c>
       <c r="B80" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C80" s="12"/>
@@ -4527,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="B81" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C81" s="12"/>
@@ -4548,7 +4851,7 @@
         <v>1</v>
       </c>
       <c r="B82" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C82" s="12"/>
@@ -4569,7 +4872,7 @@
         <v>1</v>
       </c>
       <c r="B83" s="13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sat</v>
       </c>
       <c r="C83" s="12"/>
@@ -4586,11 +4889,11 @@
     </row>
     <row r="84" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
-        <f t="shared" ref="A84:A115" si="5">WEEKNUM(D84,2)</f>
+        <f t="shared" ref="A84:A115" si="4">WEEKNUM(D84,2)</f>
         <v>1</v>
       </c>
       <c r="B84" s="13" t="str">
-        <f t="shared" ref="B84:B115" si="6">TEXT(D84,"ddd")</f>
+        <f t="shared" ref="B84:B115" si="5">TEXT(D84,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C84" s="12"/>
@@ -4607,11 +4910,11 @@
     </row>
     <row r="85" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B85" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B85" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C85" s="12"/>
@@ -4628,11 +4931,11 @@
     </row>
     <row r="86" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B86" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B86" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C86" s="12"/>
@@ -4649,11 +4952,11 @@
     </row>
     <row r="87" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B87" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B87" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C87" s="12"/>
@@ -4670,11 +4973,11 @@
     </row>
     <row r="88" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B88" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B88" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C88" s="12"/>
@@ -4691,11 +4994,11 @@
     </row>
     <row r="89" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B89" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B89" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C89" s="12"/>
@@ -4712,11 +5015,11 @@
     </row>
     <row r="90" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B90" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B90" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C90" s="12"/>
@@ -4733,11 +5036,11 @@
     </row>
     <row r="91" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B91" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B91" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C91" s="12"/>
@@ -4754,11 +5057,11 @@
     </row>
     <row r="92" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B92" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B92" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C92" s="12"/>
@@ -4775,11 +5078,11 @@
     </row>
     <row r="93" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B93" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B93" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C93" s="12"/>
@@ -4796,11 +5099,11 @@
     </row>
     <row r="94" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B94" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B94" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C94" s="12"/>
@@ -4817,11 +5120,11 @@
     </row>
     <row r="95" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B95" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B95" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C95" s="12"/>
@@ -4838,11 +5141,11 @@
     </row>
     <row r="96" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B96" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B96" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C96" s="12"/>
@@ -4859,11 +5162,11 @@
     </row>
     <row r="97" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B97" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B97" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C97" s="12"/>
@@ -4880,11 +5183,11 @@
     </row>
     <row r="98" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B98" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B98" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C98" s="12"/>
@@ -4901,11 +5204,11 @@
     </row>
     <row r="99" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B99" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B99" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C99" s="12"/>
@@ -4922,11 +5225,11 @@
     </row>
     <row r="100" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B100" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B100" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C100" s="12"/>
@@ -4943,11 +5246,11 @@
     </row>
     <row r="101" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B101" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B101" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C101" s="12"/>
@@ -4964,11 +5267,11 @@
     </row>
     <row r="102" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B102" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B102" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C102" s="12"/>
@@ -4985,11 +5288,11 @@
     </row>
     <row r="103" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B103" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B103" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C103" s="12"/>
@@ -5006,11 +5309,11 @@
     </row>
     <row r="104" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B104" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B104" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C104" s="12"/>
@@ -5027,11 +5330,11 @@
     </row>
     <row r="105" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B105" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B105" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C105" s="12"/>
@@ -5048,11 +5351,11 @@
     </row>
     <row r="106" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B106" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B106" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C106" s="12"/>
@@ -5069,11 +5372,11 @@
     </row>
     <row r="107" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B107" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B107" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C107" s="12"/>
@@ -5090,11 +5393,11 @@
     </row>
     <row r="108" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B108" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B108" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C108" s="12"/>
@@ -5111,11 +5414,11 @@
     </row>
     <row r="109" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B109" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B109" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C109" s="12"/>
@@ -5132,11 +5435,11 @@
     </row>
     <row r="110" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B110" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B110" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C110" s="12"/>
@@ -5153,11 +5456,11 @@
     </row>
     <row r="111" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B111" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B111" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C111" s="12"/>
@@ -5174,11 +5477,11 @@
     </row>
     <row r="112" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B112" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B112" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C112" s="12"/>
@@ -5195,11 +5498,11 @@
     </row>
     <row r="113" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B113" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B113" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C113" s="12"/>
@@ -5216,11 +5519,11 @@
     </row>
     <row r="114" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B114" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B114" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C114" s="12"/>
@@ -5237,11 +5540,11 @@
     </row>
     <row r="115" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B115" s="13" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B115" s="13" t="str">
-        <f t="shared" si="6"/>
         <v>Sat</v>
       </c>
       <c r="C115" s="12"/>
@@ -5258,11 +5561,11 @@
     </row>
     <row r="116" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="13">
-        <f t="shared" ref="A116:A149" si="7">WEEKNUM(D116,2)</f>
+        <f t="shared" ref="A116:A149" si="6">WEEKNUM(D116,2)</f>
         <v>1</v>
       </c>
       <c r="B116" s="13" t="str">
-        <f t="shared" ref="B116:B149" si="8">TEXT(D116,"ddd")</f>
+        <f t="shared" ref="B116:B149" si="7">TEXT(D116,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C116" s="12"/>
@@ -5279,11 +5582,11 @@
     </row>
     <row r="117" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B117" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B117" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C117" s="12"/>
@@ -5300,11 +5603,11 @@
     </row>
     <row r="118" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B118" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B118" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C118" s="12"/>
@@ -5321,11 +5624,11 @@
     </row>
     <row r="119" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B119" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B119" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C119" s="12"/>
@@ -5342,11 +5645,11 @@
     </row>
     <row r="120" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B120" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B120" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C120" s="12"/>
@@ -5363,11 +5666,11 @@
     </row>
     <row r="121" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B121" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B121" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C121" s="12"/>
@@ -5384,11 +5687,11 @@
     </row>
     <row r="122" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B122" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B122" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C122" s="12"/>
@@ -5405,11 +5708,11 @@
     </row>
     <row r="123" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B123" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B123" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C123" s="12"/>
@@ -5426,11 +5729,11 @@
     </row>
     <row r="124" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B124" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B124" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C124" s="12"/>
@@ -5447,11 +5750,11 @@
     </row>
     <row r="125" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B125" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B125" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C125" s="12"/>
@@ -5468,11 +5771,11 @@
     </row>
     <row r="126" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B126" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B126" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C126" s="12"/>
@@ -5489,11 +5792,11 @@
     </row>
     <row r="127" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B127" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B127" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C127" s="12"/>
@@ -5510,11 +5813,11 @@
     </row>
     <row r="128" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B128" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B128" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C128" s="12"/>
@@ -5531,11 +5834,11 @@
     </row>
     <row r="129" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B129" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B129" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C129" s="12"/>
@@ -5552,11 +5855,11 @@
     </row>
     <row r="130" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B130" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C130" s="12"/>
@@ -5573,11 +5876,11 @@
     </row>
     <row r="131" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B131" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B131" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C131" s="12"/>
@@ -5594,11 +5897,11 @@
     </row>
     <row r="132" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B132" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B132" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C132" s="12"/>
@@ -5615,11 +5918,11 @@
     </row>
     <row r="133" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B133" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B133" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C133" s="12"/>
@@ -5678,11 +5981,11 @@
     </row>
     <row r="136" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B136" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B136" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C136" s="12"/>
@@ -5699,11 +6002,11 @@
     </row>
     <row r="137" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B137" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B137" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C137" s="12"/>
@@ -5720,11 +6023,11 @@
     </row>
     <row r="138" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B138" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B138" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C138" s="12"/>
@@ -5741,11 +6044,11 @@
     </row>
     <row r="139" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B139" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B139" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C139" s="12"/>
@@ -5762,11 +6065,11 @@
     </row>
     <row r="140" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B140" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B140" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C140" s="12"/>
@@ -5783,11 +6086,11 @@
     </row>
     <row r="141" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B141" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B141" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C141" s="12"/>
@@ -5804,11 +6107,11 @@
     </row>
     <row r="142" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B142" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B142" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C142" s="12"/>
@@ -5825,11 +6128,11 @@
     </row>
     <row r="143" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B143" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B143" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C143" s="12"/>
@@ -5846,11 +6149,11 @@
     </row>
     <row r="144" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B144" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B144" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C144" s="12"/>
@@ -5867,11 +6170,11 @@
     </row>
     <row r="145" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B145" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B145" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C145" s="12"/>
@@ -5888,11 +6191,11 @@
     </row>
     <row r="146" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B146" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B146" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C146" s="12"/>
@@ -5909,11 +6212,11 @@
     </row>
     <row r="147" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B147" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B147" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C147" s="12"/>
@@ -5930,11 +6233,11 @@
     </row>
     <row r="148" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B148" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B148" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C148" s="12"/>
@@ -5951,11 +6254,11 @@
     </row>
     <row r="149" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="13">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B149" s="13" t="str">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="B149" s="13" t="str">
-        <f t="shared" si="8"/>
         <v>Sat</v>
       </c>
       <c r="C149" s="12"/>
@@ -5972,11 +6275,11 @@
     </row>
     <row r="150" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="13">
-        <f t="shared" ref="A150:A183" si="9">WEEKNUM(D150,2)</f>
+        <f t="shared" ref="A150:A183" si="8">WEEKNUM(D150,2)</f>
         <v>1</v>
       </c>
       <c r="B150" s="13" t="str">
-        <f t="shared" ref="B150:B183" si="10">TEXT(D150,"ddd")</f>
+        <f t="shared" ref="B150:B183" si="9">TEXT(D150,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C150" s="12"/>
@@ -5993,11 +6296,11 @@
     </row>
     <row r="151" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B151" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B151" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C151" s="12"/>
@@ -6014,11 +6317,11 @@
     </row>
     <row r="152" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B152" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B152" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C152" s="12"/>
@@ -6056,11 +6359,11 @@
     </row>
     <row r="154" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B154" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B154" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C154" s="12"/>
@@ -6077,11 +6380,11 @@
     </row>
     <row r="155" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B155" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B155" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C155" s="12"/>
@@ -6098,11 +6401,11 @@
     </row>
     <row r="156" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B156" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B156" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C156" s="12"/>
@@ -6119,11 +6422,11 @@
     </row>
     <row r="157" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B157" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B157" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C157" s="12"/>
@@ -6140,11 +6443,11 @@
     </row>
     <row r="158" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B158" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B158" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C158" s="12"/>
@@ -6161,11 +6464,11 @@
     </row>
     <row r="159" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B159" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B159" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C159" s="12"/>
@@ -6182,11 +6485,11 @@
     </row>
     <row r="160" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B160" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B160" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C160" s="12"/>
@@ -6203,11 +6506,11 @@
     </row>
     <row r="161" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B161" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B161" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C161" s="12"/>
@@ -6224,11 +6527,11 @@
     </row>
     <row r="162" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B162" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B162" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C162" s="12"/>
@@ -6245,11 +6548,11 @@
     </row>
     <row r="163" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B163" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B163" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C163" s="12"/>
@@ -6266,11 +6569,11 @@
     </row>
     <row r="164" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B164" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B164" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C164" s="12"/>
@@ -6287,11 +6590,11 @@
     </row>
     <row r="165" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B165" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B165" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C165" s="12"/>
@@ -6308,11 +6611,11 @@
     </row>
     <row r="166" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B166" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B166" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C166" s="12"/>
@@ -6329,11 +6632,11 @@
     </row>
     <row r="167" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B167" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B167" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C167" s="12"/>
@@ -6350,11 +6653,11 @@
     </row>
     <row r="168" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B168" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B168" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C168" s="12"/>
@@ -6371,11 +6674,11 @@
     </row>
     <row r="169" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B169" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B169" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C169" s="12"/>
@@ -6392,11 +6695,11 @@
     </row>
     <row r="170" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B170" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B170" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C170" s="12"/>
@@ -6413,11 +6716,11 @@
     </row>
     <row r="171" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B171" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B171" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C171" s="12"/>
@@ -6434,11 +6737,11 @@
     </row>
     <row r="172" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B172" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B172" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C172" s="12"/>
@@ -6455,11 +6758,11 @@
     </row>
     <row r="173" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B173" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B173" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C173" s="12"/>
@@ -6476,11 +6779,11 @@
     </row>
     <row r="174" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B174" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B174" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C174" s="12"/>
@@ -6497,11 +6800,11 @@
     </row>
     <row r="175" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B175" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B175" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C175" s="12"/>
@@ -6518,11 +6821,11 @@
     </row>
     <row r="176" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B176" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B176" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C176" s="12"/>
@@ -6539,11 +6842,11 @@
     </row>
     <row r="177" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B177" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B177" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C177" s="12"/>
@@ -6560,11 +6863,11 @@
     </row>
     <row r="178" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B178" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B178" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C178" s="12"/>
@@ -6581,11 +6884,11 @@
     </row>
     <row r="179" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B179" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B179" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C179" s="12"/>
@@ -6602,11 +6905,11 @@
     </row>
     <row r="180" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B180" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B180" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C180" s="12"/>
@@ -6623,11 +6926,11 @@
     </row>
     <row r="181" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B181" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B181" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C181" s="12"/>
@@ -6665,11 +6968,11 @@
     </row>
     <row r="183" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B183" s="13" t="str">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B183" s="13" t="str">
-        <f t="shared" si="10"/>
         <v>Sat</v>
       </c>
       <c r="C183" s="12"/>
@@ -6686,11 +6989,11 @@
     </row>
     <row r="184" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="13">
-        <f t="shared" ref="A184:A220" si="11">WEEKNUM(D184,2)</f>
+        <f t="shared" ref="A184:A220" si="10">WEEKNUM(D184,2)</f>
         <v>1</v>
       </c>
       <c r="B184" s="13" t="str">
-        <f t="shared" ref="B184:B215" si="12">TEXT(D184,"ddd")</f>
+        <f t="shared" ref="B184:B215" si="11">TEXT(D184,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C184" s="12"/>
@@ -6707,11 +7010,11 @@
     </row>
     <row r="185" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B185" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B185" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C185" s="12"/>
@@ -6728,11 +7031,11 @@
     </row>
     <row r="186" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B186" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B186" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C186" s="12"/>
@@ -6749,11 +7052,11 @@
     </row>
     <row r="187" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B187" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B187" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C187" s="12"/>
@@ -6770,11 +7073,11 @@
     </row>
     <row r="188" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B188" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B188" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C188" s="12"/>
@@ -6791,11 +7094,11 @@
     </row>
     <row r="189" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B189" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B189" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C189" s="12"/>
@@ -6812,11 +7115,11 @@
     </row>
     <row r="190" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B190" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B190" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C190" s="12"/>
@@ -6833,11 +7136,11 @@
     </row>
     <row r="191" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B191" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B191" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C191" s="12"/>
@@ -6854,11 +7157,11 @@
     </row>
     <row r="192" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B192" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B192" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C192" s="12"/>
@@ -6875,11 +7178,11 @@
     </row>
     <row r="193" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B193" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B193" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C193" s="12"/>
@@ -6896,11 +7199,11 @@
     </row>
     <row r="194" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B194" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B194" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C194" s="12"/>
@@ -6917,11 +7220,11 @@
     </row>
     <row r="195" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B195" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B195" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C195" s="12"/>
@@ -6938,11 +7241,11 @@
     </row>
     <row r="196" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B196" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B196" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C196" s="12"/>
@@ -6959,11 +7262,11 @@
     </row>
     <row r="197" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B197" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B197" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C197" s="12"/>
@@ -6980,11 +7283,11 @@
     </row>
     <row r="198" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B198" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B198" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C198" s="12"/>
@@ -7001,11 +7304,11 @@
     </row>
     <row r="199" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B199" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B199" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C199" s="12"/>
@@ -7022,11 +7325,11 @@
     </row>
     <row r="200" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B200" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B200" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C200" s="12"/>
@@ -7043,11 +7346,11 @@
     </row>
     <row r="201" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B201" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B201" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C201" s="12"/>
@@ -7064,11 +7367,11 @@
     </row>
     <row r="202" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B202" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B202" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C202" s="12"/>
@@ -7085,11 +7388,11 @@
     </row>
     <row r="203" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B203" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B203" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C203" s="12"/>
@@ -7106,11 +7409,11 @@
     </row>
     <row r="204" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B204" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B204" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C204" s="12"/>
@@ -7127,11 +7430,11 @@
     </row>
     <row r="205" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B205" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B205" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C205" s="12"/>
@@ -7148,11 +7451,11 @@
     </row>
     <row r="206" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B206" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B206" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C206" s="12"/>
@@ -7169,11 +7472,11 @@
     </row>
     <row r="207" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B207" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B207" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C207" s="12"/>
@@ -7190,11 +7493,11 @@
     </row>
     <row r="208" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B208" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B208" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C208" s="12"/>
@@ -7211,11 +7514,11 @@
     </row>
     <row r="209" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B209" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B209" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C209" s="12"/>
@@ -7232,11 +7535,11 @@
     </row>
     <row r="210" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B210" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B210" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C210" s="12"/>
@@ -7253,11 +7556,11 @@
     </row>
     <row r="211" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B211" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B211" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C211" s="12"/>
@@ -7274,11 +7577,11 @@
     </row>
     <row r="212" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B212" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B212" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C212" s="12"/>
@@ -7295,11 +7598,11 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B213" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B213" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C213" s="12"/>
@@ -7316,11 +7619,11 @@
     </row>
     <row r="214" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B214" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B214" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C214" s="12"/>
@@ -7337,11 +7640,11 @@
     </row>
     <row r="215" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B215" s="13" t="str">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="B215" s="13" t="str">
-        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C215" s="12"/>
@@ -7358,11 +7661,11 @@
     </row>
     <row r="216" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B216" s="13" t="str">
-        <f t="shared" ref="B216:B226" si="13">TEXT(D216,"ddd")</f>
+        <f t="shared" ref="B216:B226" si="12">TEXT(D216,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C216" s="12"/>
@@ -7379,11 +7682,11 @@
     </row>
     <row r="217" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B217" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C217" s="12"/>
@@ -7400,11 +7703,11 @@
     </row>
     <row r="218" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B218" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C218" s="12"/>
@@ -7421,11 +7724,11 @@
     </row>
     <row r="219" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B219" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C219" s="12"/>
@@ -7442,11 +7745,11 @@
     </row>
     <row r="220" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="B220" s="13" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C220" s="12"/>
@@ -7463,11 +7766,11 @@
     </row>
     <row r="221" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="36">
-        <f t="shared" ref="A221" si="14">WEEKNUM(D221,2)</f>
+        <f t="shared" ref="A221" si="13">WEEKNUM(D221,2)</f>
         <v>1</v>
       </c>
       <c r="B221" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C221" s="12"/>
@@ -7484,11 +7787,11 @@
     </row>
     <row r="222" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="36">
-        <f t="shared" ref="A222:A333" si="15">WEEKNUM(D222,2)</f>
+        <f t="shared" ref="A222:A333" si="14">WEEKNUM(D222,2)</f>
         <v>1</v>
       </c>
       <c r="B222" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C222" s="12"/>
@@ -7505,11 +7808,11 @@
     </row>
     <row r="223" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B223" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C223" s="12"/>
@@ -7526,11 +7829,11 @@
     </row>
     <row r="224" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B224" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C224" s="12"/>
@@ -7547,11 +7850,11 @@
     </row>
     <row r="225" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B225" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C225" s="12"/>
@@ -7572,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="B226" s="36" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>Sat</v>
       </c>
       <c r="C226" s="12"/>
@@ -7589,11 +7892,11 @@
     </row>
     <row r="227" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="36">
-        <f t="shared" ref="A227:A250" si="16">WEEKNUM(D227,2)</f>
+        <f t="shared" ref="A227:A250" si="15">WEEKNUM(D227,2)</f>
         <v>1</v>
       </c>
       <c r="B227" s="36" t="str">
-        <f t="shared" ref="B227:B250" si="17">TEXT(D227,"ddd")</f>
+        <f t="shared" ref="B227:B250" si="16">TEXT(D227,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C227" s="12"/>
@@ -7610,11 +7913,11 @@
     </row>
     <row r="228" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B228" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B228" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C228" s="12"/>
@@ -7631,11 +7934,11 @@
     </row>
     <row r="229" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B229" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B229" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C229" s="12"/>
@@ -7652,11 +7955,11 @@
     </row>
     <row r="230" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B230" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B230" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C230" s="12"/>
@@ -7673,11 +7976,11 @@
     </row>
     <row r="231" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B231" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B231" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C231" s="12"/>
@@ -7694,11 +7997,11 @@
     </row>
     <row r="232" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B232" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B232" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C232" s="12"/>
@@ -7715,11 +8018,11 @@
     </row>
     <row r="233" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B233" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B233" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C233" s="12"/>
@@ -7736,11 +8039,11 @@
     </row>
     <row r="234" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B234" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B234" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C234" s="12"/>
@@ -7757,11 +8060,11 @@
     </row>
     <row r="235" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B235" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B235" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C235" s="12"/>
@@ -7778,11 +8081,11 @@
     </row>
     <row r="236" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B236" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B236" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C236" s="12"/>
@@ -7799,11 +8102,11 @@
     </row>
     <row r="237" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B237" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B237" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C237" s="12"/>
@@ -7820,11 +8123,11 @@
     </row>
     <row r="238" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B238" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B238" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C238" s="12"/>
@@ -7841,11 +8144,11 @@
     </row>
     <row r="239" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B239" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B239" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C239" s="12"/>
@@ -7862,11 +8165,11 @@
     </row>
     <row r="240" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B240" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B240" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C240" s="12"/>
@@ -7883,11 +8186,11 @@
     </row>
     <row r="241" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B241" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B241" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C241" s="12"/>
@@ -7904,11 +8207,11 @@
     </row>
     <row r="242" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B242" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B242" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C242" s="12"/>
@@ -7925,11 +8228,11 @@
     </row>
     <row r="243" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B243" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B243" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C243" s="12"/>
@@ -7946,11 +8249,11 @@
     </row>
     <row r="244" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B244" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B244" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C244" s="12"/>
@@ -7967,11 +8270,11 @@
     </row>
     <row r="245" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B245" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B245" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C245" s="12"/>
@@ -7988,11 +8291,11 @@
     </row>
     <row r="246" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B246" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B246" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C246" s="12"/>
@@ -8009,11 +8312,11 @@
     </row>
     <row r="247" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B247" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B247" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C247" s="12"/>
@@ -8030,11 +8333,11 @@
     </row>
     <row r="248" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B248" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B248" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C248" s="12"/>
@@ -8051,11 +8354,11 @@
     </row>
     <row r="249" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B249" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B249" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C249" s="12"/>
@@ -8072,11 +8375,11 @@
     </row>
     <row r="250" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="36">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="B250" s="36" t="str">
         <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="B250" s="36" t="str">
-        <f t="shared" si="17"/>
         <v>Sat</v>
       </c>
       <c r="C250" s="12"/>
@@ -8093,11 +8396,11 @@
     </row>
     <row r="251" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="36">
-        <f t="shared" ref="A251:A263" si="18">WEEKNUM(D251,2)</f>
+        <f t="shared" ref="A251:A263" si="17">WEEKNUM(D251,2)</f>
         <v>1</v>
       </c>
       <c r="B251" s="36" t="str">
-        <f t="shared" ref="B251:B263" si="19">TEXT(D251,"ddd")</f>
+        <f t="shared" ref="B251:B263" si="18">TEXT(D251,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C251" s="12"/>
@@ -8114,11 +8417,11 @@
     </row>
     <row r="252" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B252" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B252" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C252" s="12"/>
@@ -8135,11 +8438,11 @@
     </row>
     <row r="253" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B253" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B253" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C253" s="12"/>
@@ -8156,11 +8459,11 @@
     </row>
     <row r="254" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B254" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B254" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C254" s="12"/>
@@ -8177,11 +8480,11 @@
     </row>
     <row r="255" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B255" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B255" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C255" s="12"/>
@@ -8198,11 +8501,11 @@
     </row>
     <row r="256" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B256" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B256" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C256" s="12"/>
@@ -8219,11 +8522,11 @@
     </row>
     <row r="257" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B257" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B257" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C257" s="12"/>
@@ -8240,11 +8543,11 @@
     </row>
     <row r="258" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B258" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B258" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C258" s="12"/>
@@ -8261,11 +8564,11 @@
     </row>
     <row r="259" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B259" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B259" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C259" s="12"/>
@@ -8282,11 +8585,11 @@
     </row>
     <row r="260" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B260" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B260" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C260" s="12"/>
@@ -8303,11 +8606,11 @@
     </row>
     <row r="261" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B261" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B261" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C261" s="12"/>
@@ -8324,11 +8627,11 @@
     </row>
     <row r="262" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B262" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B262" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C262" s="12"/>
@@ -8345,11 +8648,11 @@
     </row>
     <row r="263" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="36">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B263" s="36" t="str">
         <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="B263" s="36" t="str">
-        <f t="shared" si="19"/>
         <v>Sat</v>
       </c>
       <c r="C263" s="12"/>
@@ -8366,11 +8669,11 @@
     </row>
     <row r="264" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="36">
-        <f t="shared" ref="A264:A276" si="20">WEEKNUM(D264,2)</f>
+        <f t="shared" ref="A264:A276" si="19">WEEKNUM(D264,2)</f>
         <v>1</v>
       </c>
       <c r="B264" s="36" t="str">
-        <f t="shared" ref="B264:B276" si="21">TEXT(D264,"ddd")</f>
+        <f t="shared" ref="B264:B276" si="20">TEXT(D264,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C264" s="12"/>
@@ -8387,11 +8690,11 @@
     </row>
     <row r="265" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B265" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B265" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C265" s="12"/>
@@ -8408,11 +8711,11 @@
     </row>
     <row r="266" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B266" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B266" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C266" s="12"/>
@@ -8429,11 +8732,11 @@
     </row>
     <row r="267" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B267" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B267" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C267" s="12"/>
@@ -8450,11 +8753,11 @@
     </row>
     <row r="268" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B268" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B268" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C268" s="12"/>
@@ -8471,11 +8774,11 @@
     </row>
     <row r="269" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B269" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B269" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C269" s="12"/>
@@ -8492,11 +8795,11 @@
     </row>
     <row r="270" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B270" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B270" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C270" s="12"/>
@@ -8513,11 +8816,11 @@
     </row>
     <row r="271" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B271" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B271" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C271" s="12"/>
@@ -8534,11 +8837,11 @@
     </row>
     <row r="272" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B272" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B272" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C272" s="12"/>
@@ -8555,11 +8858,11 @@
     </row>
     <row r="273" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B273" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B273" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C273" s="12"/>
@@ -8576,11 +8879,11 @@
     </row>
     <row r="274" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B274" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B274" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C274" s="12"/>
@@ -8597,11 +8900,11 @@
     </row>
     <row r="275" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B275" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B275" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C275" s="12"/>
@@ -8618,11 +8921,11 @@
     </row>
     <row r="276" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="36">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B276" s="36" t="str">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="B276" s="36" t="str">
-        <f t="shared" si="21"/>
         <v>Sat</v>
       </c>
       <c r="C276" s="12"/>
@@ -8639,11 +8942,11 @@
     </row>
     <row r="277" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="36">
-        <f t="shared" ref="A277:A289" si="22">WEEKNUM(D277,2)</f>
+        <f t="shared" ref="A277:A289" si="21">WEEKNUM(D277,2)</f>
         <v>1</v>
       </c>
       <c r="B277" s="36" t="str">
-        <f t="shared" ref="B277:B289" si="23">TEXT(D277,"ddd")</f>
+        <f t="shared" ref="B277:B289" si="22">TEXT(D277,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C277" s="12"/>
@@ -8660,11 +8963,11 @@
     </row>
     <row r="278" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B278" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B278" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C278" s="12"/>
@@ -8681,11 +8984,11 @@
     </row>
     <row r="279" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B279" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B279" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C279" s="12"/>
@@ -8702,11 +9005,11 @@
     </row>
     <row r="280" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B280" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B280" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C280" s="12"/>
@@ -8723,11 +9026,11 @@
     </row>
     <row r="281" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B281" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B281" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C281" s="12"/>
@@ -8744,11 +9047,11 @@
     </row>
     <row r="282" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B282" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B282" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C282" s="12"/>
@@ -8765,11 +9068,11 @@
     </row>
     <row r="283" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B283" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B283" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C283" s="12"/>
@@ -8786,11 +9089,11 @@
     </row>
     <row r="284" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B284" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B284" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C284" s="12"/>
@@ -8807,11 +9110,11 @@
     </row>
     <row r="285" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B285" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B285" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C285" s="12"/>
@@ -8828,11 +9131,11 @@
     </row>
     <row r="286" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B286" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B286" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C286" s="12"/>
@@ -8849,11 +9152,11 @@
     </row>
     <row r="287" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B287" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B287" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C287" s="12"/>
@@ -8870,11 +9173,11 @@
     </row>
     <row r="288" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B288" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B288" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C288" s="12"/>
@@ -8891,11 +9194,11 @@
     </row>
     <row r="289" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="36">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B289" s="36" t="str">
         <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="B289" s="36" t="str">
-        <f t="shared" si="23"/>
         <v>Sat</v>
       </c>
       <c r="C289" s="12"/>
@@ -8912,11 +9215,11 @@
     </row>
     <row r="290" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="36">
-        <f t="shared" ref="A290:A302" si="24">WEEKNUM(D290,2)</f>
+        <f t="shared" ref="A290:A302" si="23">WEEKNUM(D290,2)</f>
         <v>1</v>
       </c>
       <c r="B290" s="36" t="str">
-        <f t="shared" ref="B290:B302" si="25">TEXT(D290,"ddd")</f>
+        <f t="shared" ref="B290:B302" si="24">TEXT(D290,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C290" s="12"/>
@@ -8933,11 +9236,11 @@
     </row>
     <row r="291" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B291" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B291" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C291" s="12"/>
@@ -8954,11 +9257,11 @@
     </row>
     <row r="292" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B292" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B292" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C292" s="12"/>
@@ -8975,11 +9278,11 @@
     </row>
     <row r="293" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B293" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B293" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C293" s="12"/>
@@ -8996,11 +9299,11 @@
     </row>
     <row r="294" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B294" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B294" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C294" s="12"/>
@@ -9017,11 +9320,11 @@
     </row>
     <row r="295" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B295" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B295" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C295" s="12"/>
@@ -9038,11 +9341,11 @@
     </row>
     <row r="296" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B296" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B296" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C296" s="12"/>
@@ -9059,11 +9362,11 @@
     </row>
     <row r="297" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B297" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B297" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C297" s="12"/>
@@ -9080,11 +9383,11 @@
     </row>
     <row r="298" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B298" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B298" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C298" s="12"/>
@@ -9101,11 +9404,11 @@
     </row>
     <row r="299" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B299" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B299" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C299" s="12"/>
@@ -9122,11 +9425,11 @@
     </row>
     <row r="300" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B300" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B300" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C300" s="12"/>
@@ -9143,11 +9446,11 @@
     </row>
     <row r="301" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B301" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B301" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C301" s="12"/>
@@ -9164,11 +9467,11 @@
     </row>
     <row r="302" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="36">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="B302" s="36" t="str">
         <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="B302" s="36" t="str">
-        <f t="shared" si="25"/>
         <v>Sat</v>
       </c>
       <c r="C302" s="12"/>
@@ -9185,11 +9488,11 @@
     </row>
     <row r="303" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="36">
-        <f t="shared" ref="A303:A306" si="26">WEEKNUM(D303,2)</f>
+        <f t="shared" ref="A303:A306" si="25">WEEKNUM(D303,2)</f>
         <v>1</v>
       </c>
       <c r="B303" s="36" t="str">
-        <f t="shared" ref="B303:B306" si="27">TEXT(D303,"ddd")</f>
+        <f t="shared" ref="B303:B306" si="26">TEXT(D303,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C303" s="12"/>
@@ -9206,11 +9509,11 @@
     </row>
     <row r="304" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="36">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B304" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="B304" s="36" t="str">
-        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C304" s="12"/>
@@ -9227,11 +9530,11 @@
     </row>
     <row r="305" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="36">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B305" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="B305" s="36" t="str">
-        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C305" s="12"/>
@@ -9248,11 +9551,11 @@
     </row>
     <row r="306" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="36">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="B306" s="36" t="str">
         <f t="shared" si="26"/>
-        <v>1</v>
-      </c>
-      <c r="B306" s="36" t="str">
-        <f t="shared" si="27"/>
         <v>Sat</v>
       </c>
       <c r="C306" s="12"/>
@@ -9269,11 +9572,11 @@
     </row>
     <row r="307" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="36">
-        <f t="shared" ref="A307:A310" si="28">WEEKNUM(D307,2)</f>
+        <f t="shared" ref="A307:A310" si="27">WEEKNUM(D307,2)</f>
         <v>1</v>
       </c>
       <c r="B307" s="36" t="str">
-        <f t="shared" ref="B307:B310" si="29">TEXT(D307,"ddd")</f>
+        <f t="shared" ref="B307:B310" si="28">TEXT(D307,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C307" s="12"/>
@@ -9290,11 +9593,11 @@
     </row>
     <row r="308" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="36">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="B308" s="36" t="str">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="B308" s="36" t="str">
-        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C308" s="12"/>
@@ -9311,11 +9614,11 @@
     </row>
     <row r="309" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="36">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="B309" s="36" t="str">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="B309" s="36" t="str">
-        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C309" s="12"/>
@@ -9332,11 +9635,11 @@
     </row>
     <row r="310" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="36">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="B310" s="36" t="str">
         <f t="shared" si="28"/>
-        <v>1</v>
-      </c>
-      <c r="B310" s="36" t="str">
-        <f t="shared" si="29"/>
         <v>Sat</v>
       </c>
       <c r="C310" s="12"/>
@@ -9353,11 +9656,11 @@
     </row>
     <row r="311" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="36">
-        <f t="shared" ref="A311:A314" si="30">WEEKNUM(D311,2)</f>
+        <f t="shared" ref="A311:A314" si="29">WEEKNUM(D311,2)</f>
         <v>1</v>
       </c>
       <c r="B311" s="36" t="str">
-        <f t="shared" ref="B311:B314" si="31">TEXT(D311,"ddd")</f>
+        <f t="shared" ref="B311:B314" si="30">TEXT(D311,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C311" s="12"/>
@@ -9374,11 +9677,11 @@
     </row>
     <row r="312" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="36">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="B312" s="36" t="str">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="B312" s="36" t="str">
-        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C312" s="12"/>
@@ -9395,11 +9698,11 @@
     </row>
     <row r="313" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="36">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="B313" s="36" t="str">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="B313" s="36" t="str">
-        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C313" s="12"/>
@@ -9416,11 +9719,11 @@
     </row>
     <row r="314" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="36">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="B314" s="36" t="str">
         <f t="shared" si="30"/>
-        <v>1</v>
-      </c>
-      <c r="B314" s="36" t="str">
-        <f t="shared" si="31"/>
         <v>Sat</v>
       </c>
       <c r="C314" s="12"/>
@@ -9437,11 +9740,11 @@
     </row>
     <row r="315" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="36">
-        <f t="shared" ref="A315:A318" si="32">WEEKNUM(D315,2)</f>
+        <f t="shared" ref="A315:A318" si="31">WEEKNUM(D315,2)</f>
         <v>1</v>
       </c>
       <c r="B315" s="36" t="str">
-        <f t="shared" ref="B315:B318" si="33">TEXT(D315,"ddd")</f>
+        <f t="shared" ref="B315:B318" si="32">TEXT(D315,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C315" s="12"/>
@@ -9458,11 +9761,11 @@
     </row>
     <row r="316" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="36">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="B316" s="36" t="str">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="B316" s="36" t="str">
-        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C316" s="12"/>
@@ -9479,11 +9782,11 @@
     </row>
     <row r="317" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="36">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="B317" s="36" t="str">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="B317" s="36" t="str">
-        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C317" s="12"/>
@@ -9500,11 +9803,11 @@
     </row>
     <row r="318" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="36">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="B318" s="36" t="str">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="B318" s="36" t="str">
-        <f t="shared" si="33"/>
         <v>Sat</v>
       </c>
       <c r="C318" s="12"/>
@@ -9521,11 +9824,11 @@
     </row>
     <row r="319" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="36">
-        <f t="shared" ref="A319:A320" si="34">WEEKNUM(D319,2)</f>
+        <f t="shared" ref="A319:A320" si="33">WEEKNUM(D319,2)</f>
         <v>1</v>
       </c>
       <c r="B319" s="36" t="str">
-        <f t="shared" ref="B319:B320" si="35">TEXT(D319,"ddd")</f>
+        <f t="shared" ref="B319:B320" si="34">TEXT(D319,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C319" s="12"/>
@@ -9542,11 +9845,11 @@
     </row>
     <row r="320" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="36">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="B320" s="36" t="str">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="B320" s="36" t="str">
-        <f t="shared" si="35"/>
         <v>Sat</v>
       </c>
       <c r="C320" s="12"/>
@@ -9584,11 +9887,11 @@
     </row>
     <row r="322" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="36">
-        <f t="shared" ref="A322:A327" si="36">WEEKNUM(D322,2)</f>
+        <f t="shared" ref="A322:A327" si="35">WEEKNUM(D322,2)</f>
         <v>1</v>
       </c>
       <c r="B322" s="36" t="str">
-        <f t="shared" ref="B322:B327" si="37">TEXT(D322,"ddd")</f>
+        <f t="shared" ref="B322:B327" si="36">TEXT(D322,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C322" s="12"/>
@@ -9605,11 +9908,11 @@
     </row>
     <row r="323" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="36">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="B323" s="36" t="str">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B323" s="36" t="str">
-        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C323" s="12"/>
@@ -9626,11 +9929,11 @@
     </row>
     <row r="324" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="36">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="B324" s="36" t="str">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B324" s="36" t="str">
-        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C324" s="12"/>
@@ -9647,11 +9950,11 @@
     </row>
     <row r="325" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="36">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="B325" s="36" t="str">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B325" s="36" t="str">
-        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C325" s="12"/>
@@ -9668,11 +9971,11 @@
     </row>
     <row r="326" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A326" s="36">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="B326" s="36" t="str">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B326" s="36" t="str">
-        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C326" s="12"/>
@@ -9689,11 +9992,11 @@
     </row>
     <row r="327" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A327" s="36">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="B327" s="36" t="str">
         <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="B327" s="36" t="str">
-        <f t="shared" si="37"/>
         <v>Sat</v>
       </c>
       <c r="C327" s="12"/>
@@ -9710,11 +10013,11 @@
     </row>
     <row r="328" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A328" s="36">
-        <f t="shared" ref="A328:A330" si="38">WEEKNUM(D328,2)</f>
+        <f t="shared" ref="A328:A330" si="37">WEEKNUM(D328,2)</f>
         <v>1</v>
       </c>
       <c r="B328" s="36" t="str">
-        <f t="shared" ref="B328:B330" si="39">TEXT(D328,"ddd")</f>
+        <f t="shared" ref="B328:B330" si="38">TEXT(D328,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C328" s="12"/>
@@ -9731,11 +10034,11 @@
     </row>
     <row r="329" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A329" s="36">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="B329" s="36" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="B329" s="36" t="str">
-        <f t="shared" si="39"/>
         <v>Sat</v>
       </c>
       <c r="C329" s="12"/>
@@ -9752,11 +10055,11 @@
     </row>
     <row r="330" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A330" s="36">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="B330" s="36" t="str">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="B330" s="36" t="str">
-        <f t="shared" si="39"/>
         <v>Sat</v>
       </c>
       <c r="C330" s="12"/>
@@ -9815,7 +10118,7 @@
     </row>
     <row r="333" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A333" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="B333" s="36" t="str">
@@ -9857,11 +10160,11 @@
     </row>
     <row r="335" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A335" s="36">
-        <f t="shared" ref="A335:A336" si="40">WEEKNUM(D335,2)</f>
+        <f t="shared" ref="A335:A336" si="39">WEEKNUM(D335,2)</f>
         <v>1</v>
       </c>
       <c r="B335" s="36" t="str">
-        <f t="shared" ref="B335:B336" si="41">TEXT(D335,"ddd")</f>
+        <f t="shared" ref="B335:B336" si="40">TEXT(D335,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C335" s="12"/>
@@ -9878,11 +10181,11 @@
     </row>
     <row r="336" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A336" s="36">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="B336" s="36" t="str">
         <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="B336" s="36" t="str">
-        <f t="shared" si="41"/>
         <v>Sat</v>
       </c>
       <c r="C336" s="12"/>
@@ -9899,11 +10202,11 @@
     </row>
     <row r="337" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A337" s="36">
-        <f t="shared" ref="A337:A338" si="42">WEEKNUM(D337,2)</f>
+        <f t="shared" ref="A337:A338" si="41">WEEKNUM(D337,2)</f>
         <v>1</v>
       </c>
       <c r="B337" s="36" t="str">
-        <f t="shared" ref="B337:B338" si="43">TEXT(D337,"ddd")</f>
+        <f t="shared" ref="B337:B338" si="42">TEXT(D337,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C337" s="12"/>
@@ -9920,11 +10223,11 @@
     </row>
     <row r="338" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A338" s="36">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="B338" s="36" t="str">
         <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="B338" s="36" t="str">
-        <f t="shared" si="43"/>
         <v>Sat</v>
       </c>
       <c r="C338" s="12"/>
@@ -9983,11 +10286,11 @@
     </row>
     <row r="341" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A341" s="36">
-        <f t="shared" ref="A341:A344" si="44">WEEKNUM(D341,2)</f>
+        <f t="shared" ref="A341:A344" si="43">WEEKNUM(D341,2)</f>
         <v>1</v>
       </c>
       <c r="B341" s="36" t="str">
-        <f t="shared" ref="B341:B344" si="45">TEXT(D341,"ddd")</f>
+        <f t="shared" ref="B341:B344" si="44">TEXT(D341,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C341" s="12"/>
@@ -10004,11 +10307,11 @@
     </row>
     <row r="342" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A342" s="36">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="B342" s="36" t="str">
         <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="B342" s="36" t="str">
-        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C342" s="12"/>
@@ -10025,11 +10328,11 @@
     </row>
     <row r="343" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A343" s="36">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="B343" s="36" t="str">
         <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="B343" s="36" t="str">
-        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C343" s="12"/>
@@ -10046,11 +10349,11 @@
     </row>
     <row r="344" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A344" s="36">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="B344" s="36" t="str">
         <f t="shared" si="44"/>
-        <v>1</v>
-      </c>
-      <c r="B344" s="36" t="str">
-        <f t="shared" si="45"/>
         <v>Sat</v>
       </c>
       <c r="C344" s="12"/>
@@ -10067,11 +10370,11 @@
     </row>
     <row r="345" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="36">
-        <f t="shared" ref="A345:A347" si="46">WEEKNUM(D345,2)</f>
+        <f t="shared" ref="A345:A347" si="45">WEEKNUM(D345,2)</f>
         <v>1</v>
       </c>
       <c r="B345" s="36" t="str">
-        <f t="shared" ref="B345:B347" si="47">TEXT(D345,"ddd")</f>
+        <f t="shared" ref="B345:B347" si="46">TEXT(D345,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C345" s="12"/>
@@ -10088,11 +10391,11 @@
     </row>
     <row r="346" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A346" s="36">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="B346" s="36" t="str">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="B346" s="36" t="str">
-        <f t="shared" si="47"/>
         <v>Sat</v>
       </c>
       <c r="C346" s="12"/>
@@ -10109,11 +10412,11 @@
     </row>
     <row r="347" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A347" s="36">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="B347" s="36" t="str">
         <f t="shared" si="46"/>
-        <v>1</v>
-      </c>
-      <c r="B347" s="36" t="str">
-        <f t="shared" si="47"/>
         <v>Sat</v>
       </c>
       <c r="C347" s="12"/>
@@ -10130,11 +10433,11 @@
     </row>
     <row r="348" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A348" s="36">
-        <f t="shared" ref="A348:A350" si="48">WEEKNUM(D348,2)</f>
+        <f t="shared" ref="A348:A350" si="47">WEEKNUM(D348,2)</f>
         <v>1</v>
       </c>
       <c r="B348" s="36" t="str">
-        <f t="shared" ref="B348:B350" si="49">TEXT(D348,"ddd")</f>
+        <f t="shared" ref="B348:B350" si="48">TEXT(D348,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C348" s="12"/>
@@ -10151,11 +10454,11 @@
     </row>
     <row r="349" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A349" s="36">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="B349" s="36" t="str">
         <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="B349" s="36" t="str">
-        <f t="shared" si="49"/>
         <v>Sat</v>
       </c>
       <c r="C349" s="12"/>
@@ -10172,11 +10475,11 @@
     </row>
     <row r="350" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A350" s="36">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="B350" s="36" t="str">
         <f t="shared" si="48"/>
-        <v>1</v>
-      </c>
-      <c r="B350" s="36" t="str">
-        <f t="shared" si="49"/>
         <v>Sat</v>
       </c>
       <c r="C350" s="12"/>
@@ -10193,11 +10496,11 @@
     </row>
     <row r="351" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A351" s="36">
-        <f t="shared" ref="A351:A353" si="50">WEEKNUM(D351,2)</f>
+        <f t="shared" ref="A351:A353" si="49">WEEKNUM(D351,2)</f>
         <v>1</v>
       </c>
       <c r="B351" s="36" t="str">
-        <f t="shared" ref="B351:B353" si="51">TEXT(D351,"ddd")</f>
+        <f t="shared" ref="B351:B353" si="50">TEXT(D351,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C351" s="12"/>
@@ -10214,11 +10517,11 @@
     </row>
     <row r="352" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A352" s="36">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="B352" s="36" t="str">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="B352" s="36" t="str">
-        <f t="shared" si="51"/>
         <v>Sat</v>
       </c>
       <c r="C352" s="12"/>
@@ -10235,11 +10538,11 @@
     </row>
     <row r="353" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A353" s="36">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="B353" s="36" t="str">
         <f t="shared" si="50"/>
-        <v>1</v>
-      </c>
-      <c r="B353" s="36" t="str">
-        <f t="shared" si="51"/>
         <v>Sat</v>
       </c>
       <c r="C353" s="12"/>
@@ -10256,11 +10559,11 @@
     </row>
     <row r="354" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A354" s="36">
-        <f t="shared" ref="A354:A356" si="52">WEEKNUM(D354,2)</f>
+        <f t="shared" ref="A354:A356" si="51">WEEKNUM(D354,2)</f>
         <v>1</v>
       </c>
       <c r="B354" s="36" t="str">
-        <f t="shared" ref="B354:B356" si="53">TEXT(D354,"ddd")</f>
+        <f t="shared" ref="B354:B356" si="52">TEXT(D354,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C354" s="12"/>
@@ -10277,11 +10580,11 @@
     </row>
     <row r="355" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A355" s="36">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="B355" s="36" t="str">
         <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="B355" s="36" t="str">
-        <f t="shared" si="53"/>
         <v>Sat</v>
       </c>
       <c r="C355" s="12"/>
@@ -10298,11 +10601,11 @@
     </row>
     <row r="356" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A356" s="36">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="B356" s="36" t="str">
         <f t="shared" si="52"/>
-        <v>1</v>
-      </c>
-      <c r="B356" s="36" t="str">
-        <f t="shared" si="53"/>
         <v>Sat</v>
       </c>
       <c r="C356" s="12"/>
@@ -10319,11 +10622,11 @@
     </row>
     <row r="357" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A357" s="36">
-        <f t="shared" ref="A357:A358" si="54">WEEKNUM(D357,2)</f>
+        <f t="shared" ref="A357:A358" si="53">WEEKNUM(D357,2)</f>
         <v>1</v>
       </c>
       <c r="B357" s="36" t="str">
-        <f t="shared" ref="B357:B358" si="55">TEXT(D357,"ddd")</f>
+        <f t="shared" ref="B357:B358" si="54">TEXT(D357,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C357" s="12"/>
@@ -10340,11 +10643,11 @@
     </row>
     <row r="358" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A358" s="36">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="B358" s="36" t="str">
         <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="B358" s="36" t="str">
-        <f t="shared" si="55"/>
         <v>Sat</v>
       </c>
       <c r="C358" s="12"/>
@@ -10382,11 +10685,11 @@
     </row>
     <row r="360" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A360" s="36">
-        <f t="shared" ref="A360:A382" si="56">WEEKNUM(D360,2)</f>
+        <f t="shared" ref="A360:A382" si="55">WEEKNUM(D360,2)</f>
         <v>1</v>
       </c>
       <c r="B360" s="36" t="str">
-        <f t="shared" ref="B360:B382" si="57">TEXT(D360,"ddd")</f>
+        <f t="shared" ref="B360:B382" si="56">TEXT(D360,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C360" s="36"/>
@@ -10403,7 +10706,7 @@
     </row>
     <row r="361" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A361" s="36">
-        <f t="shared" si="56"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="B361" s="36" t="str">
@@ -10424,11 +10727,11 @@
     </row>
     <row r="362" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A362" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B362" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B362" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C362" s="36"/>
@@ -10445,11 +10748,11 @@
     </row>
     <row r="363" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A363" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B363" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B363" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C363" s="36"/>
@@ -10466,11 +10769,11 @@
     </row>
     <row r="364" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A364" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B364" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B364" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C364" s="36"/>
@@ -10487,11 +10790,11 @@
     </row>
     <row r="365" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A365" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B365" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B365" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C365" s="36"/>
@@ -10508,11 +10811,11 @@
     </row>
     <row r="366" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A366" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B366" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B366" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C366" s="36"/>
@@ -10529,11 +10832,11 @@
     </row>
     <row r="367" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A367" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B367" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B367" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C367" s="36"/>
@@ -10550,11 +10853,11 @@
     </row>
     <row r="368" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A368" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B368" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B368" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C368" s="36"/>
@@ -10571,11 +10874,11 @@
     </row>
     <row r="369" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A369" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B369" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B369" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C369" s="36"/>
@@ -10592,11 +10895,11 @@
     </row>
     <row r="370" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A370" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B370" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B370" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C370" s="36"/>
@@ -10613,11 +10916,11 @@
     </row>
     <row r="371" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A371" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B371" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B371" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C371" s="36"/>
@@ -10634,11 +10937,11 @@
     </row>
     <row r="372" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A372" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B372" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B372" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C372" s="36"/>
@@ -10655,11 +10958,11 @@
     </row>
     <row r="373" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A373" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B373" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B373" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C373" s="36"/>
@@ -10676,11 +10979,11 @@
     </row>
     <row r="374" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A374" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B374" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B374" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C374" s="36"/>
@@ -10697,11 +11000,11 @@
     </row>
     <row r="375" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A375" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B375" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B375" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C375" s="36"/>
@@ -10718,11 +11021,11 @@
     </row>
     <row r="376" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A376" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B376" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B376" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C376" s="36"/>
@@ -10739,11 +11042,11 @@
     </row>
     <row r="377" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A377" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B377" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B377" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C377" s="36"/>
@@ -10760,11 +11063,11 @@
     </row>
     <row r="378" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A378" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B378" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B378" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C378" s="36"/>
@@ -10781,11 +11084,11 @@
     </row>
     <row r="379" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A379" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B379" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B379" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C379" s="36"/>
@@ -10802,11 +11105,11 @@
     </row>
     <row r="380" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A380" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B380" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B380" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C380" s="36"/>
@@ -10823,11 +11126,11 @@
     </row>
     <row r="381" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A381" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B381" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B381" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C381" s="36"/>
@@ -10844,11 +11147,11 @@
     </row>
     <row r="382" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A382" s="36">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="B382" s="36" t="str">
         <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="B382" s="36" t="str">
-        <f t="shared" si="57"/>
         <v>Sat</v>
       </c>
       <c r="C382" s="36"/>
@@ -10865,11 +11168,11 @@
     </row>
     <row r="383" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A383" s="36">
-        <f t="shared" ref="A383:A391" si="58">WEEKNUM(D383,2)</f>
+        <f t="shared" ref="A383:A391" si="57">WEEKNUM(D383,2)</f>
         <v>1</v>
       </c>
       <c r="B383" s="36" t="str">
-        <f t="shared" ref="B383:B391" si="59">TEXT(D383,"ddd")</f>
+        <f t="shared" ref="B383:B391" si="58">TEXT(D383,"ddd")</f>
         <v>Sat</v>
       </c>
       <c r="C383" s="36"/>
@@ -10886,11 +11189,11 @@
     </row>
     <row r="384" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A384" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B384" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B384" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C384" s="36"/>
@@ -10907,11 +11210,11 @@
     </row>
     <row r="385" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A385" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B385" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B385" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C385" s="36"/>
@@ -10928,11 +11231,11 @@
     </row>
     <row r="386" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A386" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B386" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B386" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C386" s="36"/>
@@ -10949,11 +11252,11 @@
     </row>
     <row r="387" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A387" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B387" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B387" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C387" s="36"/>
@@ -10970,11 +11273,11 @@
     </row>
     <row r="388" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A388" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B388" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B388" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C388" s="36"/>
@@ -10991,11 +11294,11 @@
     </row>
     <row r="389" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A389" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B389" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B389" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C389" s="36"/>
@@ -11012,11 +11315,11 @@
     </row>
     <row r="390" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A390" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B390" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B390" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C390" s="36"/>
@@ -11033,11 +11336,11 @@
     </row>
     <row r="391" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A391" s="36">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="B391" s="36" t="str">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="B391" s="36" t="str">
-        <f t="shared" si="59"/>
         <v>Sat</v>
       </c>
       <c r="C391" s="36"/>
@@ -15444,21 +15747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15602,7 +15890,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15618,28 +15939,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CDSIWAR_LMC.xlsx
+++ b/CDSIWAR_LMC.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="157">
   <si>
     <t>Week</t>
   </si>
@@ -513,6 +513,12 @@
   </si>
   <si>
     <t>RLC - Customer Aging Report - Updated report temporary table for report layout</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Placed conditions for transactions to which aging bucket it will fall under</t>
+  </si>
+  <si>
+    <t>RLC - Customer Aging Report - Placed conditions for transactions to which aging bucket it will fall under (Continuation)</t>
   </si>
 </sst>
 </file>
@@ -2445,10 +2451,10 @@
   <dimension ref="A3:T391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
+      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4446,51 +4452,74 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="13">
-        <f t="shared" ref="A61:A83" si="3">WEEKNUM(D63,2)</f>
-        <v>1</v>
-      </c>
-      <c r="B63" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="28">
+        <v>44848</v>
+      </c>
+      <c r="E63" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="F63" s="34">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="G63" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H63" s="17"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>4:10</v>
+      </c>
+      <c r="H63" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="B64" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v>Sat</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
+        <v>6</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D64" s="28">
+        <v>44848</v>
+      </c>
+      <c r="E64" s="34">
+        <v>0.59375</v>
+      </c>
+      <c r="F64" s="34">
+        <v>0.75208333333333333</v>
+      </c>
       <c r="G64" s="14" t="str">
         <f>TEXT((DetailsTable[[#This Row],[Time out]]-DetailsTable[[#This Row],[Time in]]),"h:mm")</f>
-        <v>0:00</v>
-      </c>
-      <c r="H64" s="17"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="21"/>
+        <v>3:48</v>
+      </c>
+      <c r="H64" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="21" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="13">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="B65" s="13" t="str">
@@ -4511,7 +4540,7 @@
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A63:A83" si="3">WEEKNUM(D66,2)</f>
         <v>1</v>
       </c>
       <c r="B66" s="13" t="str">
@@ -15747,6 +15776,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F617D5D6C2326244B945A153B2699D83" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="729ff3d1dfa1b0e3159d7adc89176057">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cfde720a-0586-4dda-8f1e-44106db839b2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="75fdde4a3c23aebaadb6d43fc9a28e41" ns2:_="">
     <xsd:import namespace="cfde720a-0586-4dda-8f1e-44106db839b2"/>
@@ -15890,12 +15925,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15906,6 +15935,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A937C81F-37D0-49D9-BB44-3922ADAA15B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15923,22 +15968,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74F0C21E-798F-42EB-93E2-07F38EACDD56}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="cfde720a-0586-4dda-8f1e-44106db839b2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B01623-99F0-4F5F-87D1-E6F1F0AA2529}">
   <ds:schemaRefs>
